--- a/Roadshow/Tag 1/_Testdatengenerator_RS1.xlsx
+++ b/Roadshow/Tag 1/_Testdatengenerator_RS1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://m2datade-my.sharepoint.com/personal/michael_m2data_de/Documents/Dokumente/GitHub/Willibald-Data/Roadshow/Tag 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="8_{67178442-6C19-488F-BF88-622EC559E3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E0B84E4-E368-4A7A-AA5C-95B338B99417}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="8_{67178442-6C19-488F-BF88-622EC559E3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A39BE27-6EF1-4E5E-841A-E515A6A843AC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{391F0E04-1C65-4F9A-AF4B-C5E4E497EA36}"/>
+    <workbookView xWindow="11292" yWindow="828" windowWidth="32220" windowHeight="22884" xr2:uid="{391F0E04-1C65-4F9A-AF4B-C5E4E497EA36}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4429" uniqueCount="1331">
   <si>
     <t>BestellungID</t>
   </si>
@@ -3603,6 +3603,432 @@
   </si>
   <si>
     <t>GlückAuf</t>
+  </si>
+  <si>
+    <t>04/18</t>
+  </si>
+  <si>
+    <t>01/23</t>
+  </si>
+  <si>
+    <t>03/18</t>
+  </si>
+  <si>
+    <t>08/20</t>
+  </si>
+  <si>
+    <t>08/23</t>
+  </si>
+  <si>
+    <t>06/99</t>
+  </si>
+  <si>
+    <t>06/82</t>
+  </si>
+  <si>
+    <t>08/16</t>
+  </si>
+  <si>
+    <t>11/15</t>
+  </si>
+  <si>
+    <t>09/19</t>
+  </si>
+  <si>
+    <t>10/20</t>
+  </si>
+  <si>
+    <t>11/18</t>
+  </si>
+  <si>
+    <t>12/92</t>
+  </si>
+  <si>
+    <t>05/23</t>
+  </si>
+  <si>
+    <t>06/92</t>
+  </si>
+  <si>
+    <t>07/20</t>
+  </si>
+  <si>
+    <t>09/13</t>
+  </si>
+  <si>
+    <t>07/18</t>
+  </si>
+  <si>
+    <t>08/19</t>
+  </si>
+  <si>
+    <t>10/96</t>
+  </si>
+  <si>
+    <t>10/97</t>
+  </si>
+  <si>
+    <t>05/14</t>
+  </si>
+  <si>
+    <t>04/23</t>
+  </si>
+  <si>
+    <t>05/17</t>
+  </si>
+  <si>
+    <t>01/89</t>
+  </si>
+  <si>
+    <t>05/18</t>
+  </si>
+  <si>
+    <t>02/18</t>
+  </si>
+  <si>
+    <t>09/23</t>
+  </si>
+  <si>
+    <t>10/23</t>
+  </si>
+  <si>
+    <t>05/85</t>
+  </si>
+  <si>
+    <t>11/23</t>
+  </si>
+  <si>
+    <t>05/15</t>
+  </si>
+  <si>
+    <t>07/23</t>
+  </si>
+  <si>
+    <t>06/20</t>
+  </si>
+  <si>
+    <t>12/17</t>
+  </si>
+  <si>
+    <t>10/92</t>
+  </si>
+  <si>
+    <t>04/20</t>
+  </si>
+  <si>
+    <t>06/88</t>
+  </si>
+  <si>
+    <t>09/91</t>
+  </si>
+  <si>
+    <t>06/23</t>
+  </si>
+  <si>
+    <t>09/96</t>
+  </si>
+  <si>
+    <t>09/17</t>
+  </si>
+  <si>
+    <t>08/14</t>
+  </si>
+  <si>
+    <t>01/17</t>
+  </si>
+  <si>
+    <t>08/78</t>
+  </si>
+  <si>
+    <t>09/20</t>
+  </si>
+  <si>
+    <t>01/19</t>
+  </si>
+  <si>
+    <t>09/18</t>
+  </si>
+  <si>
+    <t>06/87</t>
+  </si>
+  <si>
+    <t>01/21</t>
+  </si>
+  <si>
+    <t>04/19</t>
+  </si>
+  <si>
+    <t>02/90</t>
+  </si>
+  <si>
+    <t>02/98</t>
+  </si>
+  <si>
+    <t>06/98</t>
+  </si>
+  <si>
+    <t>09/88</t>
+  </si>
+  <si>
+    <t>11/14</t>
+  </si>
+  <si>
+    <t>03/23</t>
+  </si>
+  <si>
+    <t>09/76</t>
+  </si>
+  <si>
+    <t>02/84</t>
+  </si>
+  <si>
+    <t>01/88</t>
+  </si>
+  <si>
+    <t>02/20</t>
+  </si>
+  <si>
+    <t>04/17</t>
+  </si>
+  <si>
+    <t>08/17</t>
+  </si>
+  <si>
+    <t>11/13</t>
+  </si>
+  <si>
+    <t>06/14</t>
+  </si>
+  <si>
+    <t>11/84</t>
+  </si>
+  <si>
+    <t>12/20</t>
+  </si>
+  <si>
+    <t>07/16</t>
+  </si>
+  <si>
+    <t>09/16</t>
+  </si>
+  <si>
+    <t>01/96</t>
+  </si>
+  <si>
+    <t>07/13</t>
+  </si>
+  <si>
+    <t>02/23</t>
+  </si>
+  <si>
+    <t>01/18</t>
+  </si>
+  <si>
+    <t>01/20</t>
+  </si>
+  <si>
+    <t>12/13</t>
+  </si>
+  <si>
+    <t>06/19</t>
+  </si>
+  <si>
+    <t>10/90</t>
+  </si>
+  <si>
+    <t>12/23</t>
+  </si>
+  <si>
+    <t>04/84</t>
+  </si>
+  <si>
+    <t>07/86</t>
+  </si>
+  <si>
+    <t>03/21</t>
+  </si>
+  <si>
+    <t>06/93</t>
+  </si>
+  <si>
+    <t>05/92</t>
+  </si>
+  <si>
+    <t>02/16</t>
+  </si>
+  <si>
+    <t>09/94</t>
+  </si>
+  <si>
+    <t>03/15</t>
+  </si>
+  <si>
+    <t>03/20</t>
+  </si>
+  <si>
+    <t>05/99</t>
+  </si>
+  <si>
+    <t>12/91</t>
+  </si>
+  <si>
+    <t>03/13</t>
+  </si>
+  <si>
+    <t>08/18</t>
+  </si>
+  <si>
+    <t>05/16</t>
+  </si>
+  <si>
+    <t>06/17</t>
+  </si>
+  <si>
+    <t>02/21</t>
+  </si>
+  <si>
+    <t>10/15</t>
+  </si>
+  <si>
+    <t>02/14</t>
+  </si>
+  <si>
+    <t>01/13</t>
+  </si>
+  <si>
+    <t>12/87</t>
+  </si>
+  <si>
+    <t>02/83</t>
+  </si>
+  <si>
+    <t>06/83</t>
+  </si>
+  <si>
+    <t>07/19</t>
+  </si>
+  <si>
+    <t>06/91</t>
+  </si>
+  <si>
+    <t>08/13</t>
+  </si>
+  <si>
+    <t>12/88</t>
+  </si>
+  <si>
+    <t>10/13</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>01/99</t>
+  </si>
+  <si>
+    <t>06/13</t>
+  </si>
+  <si>
+    <t>03/17</t>
+  </si>
+  <si>
+    <t>06/79</t>
+  </si>
+  <si>
+    <t>11/16</t>
+  </si>
+  <si>
+    <t>06/15</t>
+  </si>
+  <si>
+    <t>07/17</t>
+  </si>
+  <si>
+    <t>10/19</t>
+  </si>
+  <si>
+    <t>04/14</t>
+  </si>
+  <si>
+    <t>12/94</t>
+  </si>
+  <si>
+    <t>01/15</t>
+  </si>
+  <si>
+    <t>04/99</t>
+  </si>
+  <si>
+    <t>10/94</t>
+  </si>
+  <si>
+    <t>01/16</t>
+  </si>
+  <si>
+    <t>12/14</t>
+  </si>
+  <si>
+    <t>11/17</t>
+  </si>
+  <si>
+    <t>09/95</t>
+  </si>
+  <si>
+    <t>10/16</t>
+  </si>
+  <si>
+    <t>04/89</t>
+  </si>
+  <si>
+    <t>05/20</t>
+  </si>
+  <si>
+    <t>05/87</t>
+  </si>
+  <si>
+    <t>11/95</t>
+  </si>
+  <si>
+    <t>12/99</t>
+  </si>
+  <si>
+    <t>01/90</t>
+  </si>
+  <si>
+    <t>10/86</t>
+  </si>
+  <si>
+    <t>10/17</t>
+  </si>
+  <si>
+    <t>02/15</t>
+  </si>
+  <si>
+    <t>04/13</t>
+  </si>
+  <si>
+    <t>11/20</t>
+  </si>
+  <si>
+    <t>02/97</t>
+  </si>
+  <si>
+    <t>09/89</t>
+  </si>
+  <si>
+    <t>12/18</t>
+  </si>
+  <si>
+    <t>05/13</t>
+  </si>
+  <si>
+    <t>04/94</t>
+  </si>
+  <si>
+    <t>04/91</t>
+  </si>
+  <si>
+    <t>07/80</t>
   </si>
 </sst>
 </file>
@@ -3963,8 +4389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B66C8A3-9D3D-469D-84FE-5F57E15262BC}">
   <dimension ref="A1:N1262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1303" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K1262"/>
+    <sheetView tabSelected="1" topLeftCell="A1200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K1262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23438,8 +23864,8 @@
       <c r="E630" t="s">
         <v>915</v>
       </c>
-      <c r="F630" s="4">
-        <v>43191</v>
+      <c r="F630" s="4" t="s">
+        <v>1189</v>
       </c>
       <c r="G630" t="s">
         <v>911</v>
@@ -23481,8 +23907,8 @@
       <c r="E631" t="s">
         <v>916</v>
       </c>
-      <c r="F631" s="4">
-        <v>44927</v>
+      <c r="F631" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G631" t="s">
         <v>912</v>
@@ -23521,8 +23947,8 @@
       <c r="E632" t="s">
         <v>917</v>
       </c>
-      <c r="F632" s="4">
-        <v>44927</v>
+      <c r="F632" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G632" t="s">
         <v>911</v>
@@ -23561,8 +23987,8 @@
       <c r="E633" t="s">
         <v>918</v>
       </c>
-      <c r="F633" s="4">
-        <v>43160</v>
+      <c r="F633" s="4" t="s">
+        <v>1191</v>
       </c>
       <c r="G633" t="s">
         <v>911</v>
@@ -23601,8 +24027,8 @@
       <c r="E634" t="s">
         <v>918</v>
       </c>
-      <c r="F634" s="4">
-        <v>43160</v>
+      <c r="F634" s="4" t="s">
+        <v>1191</v>
       </c>
       <c r="G634" t="s">
         <v>911</v>
@@ -23644,8 +24070,8 @@
       <c r="E635" t="s">
         <v>919</v>
       </c>
-      <c r="F635" s="4">
-        <v>44044</v>
+      <c r="F635" s="4" t="s">
+        <v>1192</v>
       </c>
       <c r="G635" t="s">
         <v>912</v>
@@ -23687,8 +24113,8 @@
       <c r="E636" t="s">
         <v>920</v>
       </c>
-      <c r="F636" s="4">
-        <v>45139</v>
+      <c r="F636" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G636" t="s">
         <v>911</v>
@@ -23730,8 +24156,8 @@
       <c r="E637" t="s">
         <v>921</v>
       </c>
-      <c r="F637" s="4">
-        <v>36312</v>
+      <c r="F637" s="4" t="s">
+        <v>1194</v>
       </c>
       <c r="G637" t="s">
         <v>912</v>
@@ -23770,8 +24196,8 @@
       <c r="E638" t="s">
         <v>922</v>
       </c>
-      <c r="F638" s="4">
-        <v>30103</v>
+      <c r="F638" s="4" t="s">
+        <v>1195</v>
       </c>
       <c r="G638" t="s">
         <v>912</v>
@@ -23813,8 +24239,8 @@
       <c r="E639" t="s">
         <v>923</v>
       </c>
-      <c r="F639" s="4">
-        <v>42583</v>
+      <c r="F639" s="4" t="s">
+        <v>1196</v>
       </c>
       <c r="G639" t="s">
         <v>912</v>
@@ -23856,8 +24282,8 @@
       <c r="E640" t="s">
         <v>923</v>
       </c>
-      <c r="F640" s="4">
-        <v>42583</v>
+      <c r="F640" s="4" t="s">
+        <v>1196</v>
       </c>
       <c r="G640" t="s">
         <v>912</v>
@@ -23899,8 +24325,8 @@
       <c r="E641" t="s">
         <v>923</v>
       </c>
-      <c r="F641" s="4">
-        <v>42583</v>
+      <c r="F641" s="4" t="s">
+        <v>1196</v>
       </c>
       <c r="G641" t="s">
         <v>912</v>
@@ -23942,8 +24368,8 @@
       <c r="E642" t="s">
         <v>923</v>
       </c>
-      <c r="F642" s="4">
-        <v>42583</v>
+      <c r="F642" s="4" t="s">
+        <v>1196</v>
       </c>
       <c r="G642" t="s">
         <v>912</v>
@@ -23985,8 +24411,8 @@
       <c r="E643" t="s">
         <v>924</v>
       </c>
-      <c r="F643" s="4">
-        <v>42309</v>
+      <c r="F643" s="4" t="s">
+        <v>1197</v>
       </c>
       <c r="G643" t="s">
         <v>913</v>
@@ -24025,8 +24451,8 @@
       <c r="E644" t="s">
         <v>925</v>
       </c>
-      <c r="F644" s="4">
-        <v>43709</v>
+      <c r="F644" s="4" t="s">
+        <v>1198</v>
       </c>
       <c r="G644" t="s">
         <v>912</v>
@@ -24068,8 +24494,8 @@
       <c r="E645" t="s">
         <v>926</v>
       </c>
-      <c r="F645" s="4">
-        <v>44105</v>
+      <c r="F645" s="4" t="s">
+        <v>1199</v>
       </c>
       <c r="G645" t="s">
         <v>912</v>
@@ -24108,8 +24534,8 @@
       <c r="E646" t="s">
         <v>927</v>
       </c>
-      <c r="F646" s="4">
-        <v>43405</v>
+      <c r="F646" s="4" t="s">
+        <v>1200</v>
       </c>
       <c r="G646" t="s">
         <v>913</v>
@@ -24151,8 +24577,8 @@
       <c r="E647" t="s">
         <v>928</v>
       </c>
-      <c r="F647" s="4">
-        <v>33939</v>
+      <c r="F647" s="4" t="s">
+        <v>1201</v>
       </c>
       <c r="G647" t="s">
         <v>913</v>
@@ -24194,8 +24620,8 @@
       <c r="E648" t="s">
         <v>928</v>
       </c>
-      <c r="F648" s="4">
-        <v>33939</v>
+      <c r="F648" s="4" t="s">
+        <v>1201</v>
       </c>
       <c r="G648" t="s">
         <v>913</v>
@@ -24237,8 +24663,8 @@
       <c r="E649" t="s">
         <v>928</v>
       </c>
-      <c r="F649" s="4">
-        <v>33939</v>
+      <c r="F649" s="4" t="s">
+        <v>1201</v>
       </c>
       <c r="G649" t="s">
         <v>913</v>
@@ -24280,8 +24706,8 @@
       <c r="E650" t="s">
         <v>929</v>
       </c>
-      <c r="F650" s="4">
-        <v>45047</v>
+      <c r="F650" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G650" t="s">
         <v>912</v>
@@ -24320,8 +24746,8 @@
       <c r="E651" t="s">
         <v>930</v>
       </c>
-      <c r="F651" s="4">
-        <v>45047</v>
+      <c r="F651" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G651" t="s">
         <v>911</v>
@@ -24360,8 +24786,8 @@
       <c r="E652" t="s">
         <v>931</v>
       </c>
-      <c r="F652" s="4">
-        <v>33756</v>
+      <c r="F652" s="4" t="s">
+        <v>1203</v>
       </c>
       <c r="G652" t="s">
         <v>912</v>
@@ -24403,8 +24829,8 @@
       <c r="E653" t="s">
         <v>932</v>
       </c>
-      <c r="F653" s="4">
-        <v>44013</v>
+      <c r="F653" s="4" t="s">
+        <v>1204</v>
       </c>
       <c r="G653" t="s">
         <v>912</v>
@@ -24443,8 +24869,8 @@
       <c r="E654" t="s">
         <v>933</v>
       </c>
-      <c r="F654" s="4">
-        <v>41518</v>
+      <c r="F654" s="4" t="s">
+        <v>1205</v>
       </c>
       <c r="G654" t="s">
         <v>912</v>
@@ -24483,8 +24909,8 @@
       <c r="E655" t="s">
         <v>933</v>
       </c>
-      <c r="F655" s="4">
-        <v>41518</v>
+      <c r="F655" s="4" t="s">
+        <v>1205</v>
       </c>
       <c r="G655" t="s">
         <v>912</v>
@@ -24523,8 +24949,8 @@
       <c r="E656" t="s">
         <v>933</v>
       </c>
-      <c r="F656" s="4">
-        <v>41518</v>
+      <c r="F656" s="4" t="s">
+        <v>1205</v>
       </c>
       <c r="G656" t="s">
         <v>912</v>
@@ -24563,8 +24989,8 @@
       <c r="E657" t="s">
         <v>933</v>
       </c>
-      <c r="F657" s="4">
-        <v>41518</v>
+      <c r="F657" s="4" t="s">
+        <v>1205</v>
       </c>
       <c r="G657" t="s">
         <v>912</v>
@@ -24603,8 +25029,8 @@
       <c r="E658" t="s">
         <v>933</v>
       </c>
-      <c r="F658" s="4">
-        <v>41518</v>
+      <c r="F658" s="4" t="s">
+        <v>1205</v>
       </c>
       <c r="G658" t="s">
         <v>912</v>
@@ -24646,8 +25072,8 @@
       <c r="E659" t="s">
         <v>934</v>
       </c>
-      <c r="F659" s="4">
-        <v>43282</v>
+      <c r="F659" s="4" t="s">
+        <v>1206</v>
       </c>
       <c r="G659" t="s">
         <v>912</v>
@@ -24686,8 +25112,8 @@
       <c r="E660" t="s">
         <v>935</v>
       </c>
-      <c r="F660" s="4">
-        <v>43678</v>
+      <c r="F660" s="4" t="s">
+        <v>1207</v>
       </c>
       <c r="G660" t="s">
         <v>912</v>
@@ -24729,8 +25155,8 @@
       <c r="E661" t="s">
         <v>936</v>
       </c>
-      <c r="F661" s="4">
-        <v>35339</v>
+      <c r="F661" s="4" t="s">
+        <v>1208</v>
       </c>
       <c r="G661" t="s">
         <v>912</v>
@@ -24769,8 +25195,8 @@
       <c r="E662" t="s">
         <v>937</v>
       </c>
-      <c r="F662" s="4">
-        <v>43191</v>
+      <c r="F662" s="4" t="s">
+        <v>1189</v>
       </c>
       <c r="G662" t="s">
         <v>911</v>
@@ -24812,8 +25238,8 @@
       <c r="E663" t="s">
         <v>938</v>
       </c>
-      <c r="F663" s="4">
-        <v>35704</v>
+      <c r="F663" s="4" t="s">
+        <v>1209</v>
       </c>
       <c r="G663" t="s">
         <v>912</v>
@@ -24855,8 +25281,8 @@
       <c r="E664" t="s">
         <v>938</v>
       </c>
-      <c r="F664" s="4">
-        <v>35704</v>
+      <c r="F664" s="4" t="s">
+        <v>1209</v>
       </c>
       <c r="G664" t="s">
         <v>912</v>
@@ -24898,8 +25324,8 @@
       <c r="E665" t="s">
         <v>939</v>
       </c>
-      <c r="F665" s="4">
-        <v>41760</v>
+      <c r="F665" s="4" t="s">
+        <v>1210</v>
       </c>
       <c r="G665" t="s">
         <v>911</v>
@@ -24941,8 +25367,8 @@
       <c r="E666" t="s">
         <v>940</v>
       </c>
-      <c r="F666" s="4">
-        <v>45017</v>
+      <c r="F666" s="4" t="s">
+        <v>1211</v>
       </c>
       <c r="G666" t="s">
         <v>912</v>
@@ -24984,8 +25410,8 @@
       <c r="E667" t="s">
         <v>941</v>
       </c>
-      <c r="F667" s="4">
-        <v>42856</v>
+      <c r="F667" s="4" t="s">
+        <v>1212</v>
       </c>
       <c r="G667" t="s">
         <v>911</v>
@@ -25027,8 +25453,8 @@
       <c r="E668" t="s">
         <v>942</v>
       </c>
-      <c r="F668" s="4">
-        <v>32509</v>
+      <c r="F668" s="4" t="s">
+        <v>1213</v>
       </c>
       <c r="G668" t="s">
         <v>911</v>
@@ -25067,8 +25493,8 @@
       <c r="E669" t="s">
         <v>943</v>
       </c>
-      <c r="F669" s="4">
-        <v>43221</v>
+      <c r="F669" s="4" t="s">
+        <v>1214</v>
       </c>
       <c r="G669" t="s">
         <v>911</v>
@@ -25107,8 +25533,8 @@
       <c r="E670" t="s">
         <v>943</v>
       </c>
-      <c r="F670" s="4">
-        <v>43221</v>
+      <c r="F670" s="4" t="s">
+        <v>1214</v>
       </c>
       <c r="G670" t="s">
         <v>911</v>
@@ -25147,8 +25573,8 @@
       <c r="E671" t="s">
         <v>943</v>
       </c>
-      <c r="F671" s="4">
-        <v>43221</v>
+      <c r="F671" s="4" t="s">
+        <v>1214</v>
       </c>
       <c r="G671" t="s">
         <v>911</v>
@@ -25187,8 +25613,8 @@
       <c r="E672" t="s">
         <v>943</v>
       </c>
-      <c r="F672" s="4">
-        <v>43221</v>
+      <c r="F672" s="4" t="s">
+        <v>1214</v>
       </c>
       <c r="G672" t="s">
         <v>911</v>
@@ -25230,8 +25656,8 @@
       <c r="E673" t="s">
         <v>944</v>
       </c>
-      <c r="F673" s="4">
-        <v>43132</v>
+      <c r="F673" s="4" t="s">
+        <v>1215</v>
       </c>
       <c r="G673" t="s">
         <v>911</v>
@@ -25270,8 +25696,8 @@
       <c r="E674" t="s">
         <v>945</v>
       </c>
-      <c r="F674" s="4">
-        <v>45170</v>
+      <c r="F674" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G674" t="s">
         <v>912</v>
@@ -25313,8 +25739,8 @@
       <c r="E675" t="s">
         <v>946</v>
       </c>
-      <c r="F675" s="4">
-        <v>45200</v>
+      <c r="F675" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G675" t="s">
         <v>911</v>
@@ -25356,8 +25782,8 @@
       <c r="E676" t="s">
         <v>947</v>
       </c>
-      <c r="F676" s="4">
-        <v>31168</v>
+      <c r="F676" s="4" t="s">
+        <v>1218</v>
       </c>
       <c r="G676" t="s">
         <v>911</v>
@@ -25399,8 +25825,8 @@
       <c r="E677" t="s">
         <v>948</v>
       </c>
-      <c r="F677" s="4">
-        <v>45231</v>
+      <c r="F677" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G677" t="s">
         <v>911</v>
@@ -25442,8 +25868,8 @@
       <c r="E678" t="s">
         <v>948</v>
       </c>
-      <c r="F678" s="4">
-        <v>45231</v>
+      <c r="F678" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G678" t="s">
         <v>911</v>
@@ -25482,8 +25908,8 @@
       <c r="E679" t="s">
         <v>949</v>
       </c>
-      <c r="F679" s="4">
-        <v>42125</v>
+      <c r="F679" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="G679" t="s">
         <v>911</v>
@@ -25525,8 +25951,8 @@
       <c r="E680" t="s">
         <v>950</v>
       </c>
-      <c r="F680" s="4">
-        <v>33756</v>
+      <c r="F680" s="4" t="s">
+        <v>1203</v>
       </c>
       <c r="G680" t="s">
         <v>912</v>
@@ -25568,8 +25994,8 @@
       <c r="E681" t="s">
         <v>951</v>
       </c>
-      <c r="F681" s="4">
-        <v>45108</v>
+      <c r="F681" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G681" t="s">
         <v>911</v>
@@ -25611,8 +26037,8 @@
       <c r="E682" t="s">
         <v>952</v>
       </c>
-      <c r="F682" s="4">
-        <v>43983</v>
+      <c r="F682" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="G682" t="s">
         <v>912</v>
@@ -25654,8 +26080,8 @@
       <c r="E683" t="s">
         <v>953</v>
       </c>
-      <c r="F683" s="4">
-        <v>45139</v>
+      <c r="F683" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G683" t="s">
         <v>911</v>
@@ -25697,8 +26123,8 @@
       <c r="E684" t="s">
         <v>953</v>
       </c>
-      <c r="F684" s="4">
-        <v>45139</v>
+      <c r="F684" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G684" t="s">
         <v>911</v>
@@ -25737,8 +26163,8 @@
       <c r="E685" t="s">
         <v>954</v>
       </c>
-      <c r="F685" s="4">
-        <v>43070</v>
+      <c r="F685" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="G685" t="s">
         <v>913</v>
@@ -25780,8 +26206,8 @@
       <c r="E686" t="s">
         <v>955</v>
       </c>
-      <c r="F686" s="4">
-        <v>43070</v>
+      <c r="F686" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="G686" t="s">
         <v>913</v>
@@ -25823,8 +26249,8 @@
       <c r="E687" t="s">
         <v>956</v>
       </c>
-      <c r="F687" s="4">
-        <v>33878</v>
+      <c r="F687" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="G687" t="s">
         <v>912</v>
@@ -25863,8 +26289,8 @@
       <c r="E688" t="s">
         <v>957</v>
       </c>
-      <c r="F688" s="4">
-        <v>43922</v>
+      <c r="F688" s="4" t="s">
+        <v>1225</v>
       </c>
       <c r="G688" t="s">
         <v>911</v>
@@ -25906,8 +26332,8 @@
       <c r="E689" t="s">
         <v>916</v>
       </c>
-      <c r="F689" s="4">
-        <v>44927</v>
+      <c r="F689" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G689" t="s">
         <v>912</v>
@@ -25949,8 +26375,8 @@
       <c r="E690" t="s">
         <v>916</v>
       </c>
-      <c r="F690" s="4">
-        <v>44927</v>
+      <c r="F690" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G690" t="s">
         <v>912</v>
@@ -25992,8 +26418,8 @@
       <c r="E691" t="s">
         <v>916</v>
       </c>
-      <c r="F691" s="4">
-        <v>44927</v>
+      <c r="F691" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G691" t="s">
         <v>912</v>
@@ -26035,8 +26461,8 @@
       <c r="E692" t="s">
         <v>916</v>
       </c>
-      <c r="F692" s="4">
-        <v>44927</v>
+      <c r="F692" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G692" t="s">
         <v>912</v>
@@ -26078,8 +26504,8 @@
       <c r="E693" t="s">
         <v>916</v>
       </c>
-      <c r="F693" s="4">
-        <v>44927</v>
+      <c r="F693" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G693" t="s">
         <v>912</v>
@@ -26121,8 +26547,8 @@
       <c r="E694" t="s">
         <v>958</v>
       </c>
-      <c r="F694" s="4">
-        <v>32295</v>
+      <c r="F694" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="G694" t="s">
         <v>912</v>
@@ -26164,8 +26590,8 @@
       <c r="E695" t="s">
         <v>959</v>
       </c>
-      <c r="F695" s="4">
-        <v>33482</v>
+      <c r="F695" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="G695" t="s">
         <v>912</v>
@@ -26207,8 +26633,8 @@
       <c r="E696" t="s">
         <v>960</v>
       </c>
-      <c r="F696" s="4">
-        <v>45078</v>
+      <c r="F696" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G696" t="s">
         <v>912</v>
@@ -26247,8 +26673,8 @@
       <c r="E697" t="s">
         <v>961</v>
       </c>
-      <c r="F697" s="4">
-        <v>35309</v>
+      <c r="F697" s="4" t="s">
+        <v>1229</v>
       </c>
       <c r="G697" t="s">
         <v>912</v>
@@ -26290,8 +26716,8 @@
       <c r="E698" t="s">
         <v>962</v>
       </c>
-      <c r="F698" s="4">
-        <v>45200</v>
+      <c r="F698" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G698" t="s">
         <v>911</v>
@@ -26333,8 +26759,8 @@
       <c r="E699" t="s">
         <v>962</v>
       </c>
-      <c r="F699" s="4">
-        <v>45200</v>
+      <c r="F699" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G699" t="s">
         <v>911</v>
@@ -26376,8 +26802,8 @@
       <c r="E700" t="s">
         <v>962</v>
       </c>
-      <c r="F700" s="4">
-        <v>45200</v>
+      <c r="F700" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G700" t="s">
         <v>911</v>
@@ -26416,8 +26842,8 @@
       <c r="E701" t="s">
         <v>963</v>
       </c>
-      <c r="F701" s="4">
-        <v>42979</v>
+      <c r="F701" s="4" t="s">
+        <v>1230</v>
       </c>
       <c r="G701" t="s">
         <v>912</v>
@@ -26459,8 +26885,8 @@
       <c r="E702" t="s">
         <v>964</v>
       </c>
-      <c r="F702" s="4">
-        <v>41852</v>
+      <c r="F702" s="4" t="s">
+        <v>1231</v>
       </c>
       <c r="G702" t="s">
         <v>912</v>
@@ -26502,8 +26928,8 @@
       <c r="E703" t="s">
         <v>965</v>
       </c>
-      <c r="F703" s="4">
-        <v>42736</v>
+      <c r="F703" s="4" t="s">
+        <v>1232</v>
       </c>
       <c r="G703" t="s">
         <v>911</v>
@@ -26545,8 +26971,8 @@
       <c r="E704" t="s">
         <v>966</v>
       </c>
-      <c r="F704" s="4">
-        <v>28703</v>
+      <c r="F704" s="4" t="s">
+        <v>1233</v>
       </c>
       <c r="G704" t="s">
         <v>912</v>
@@ -26585,8 +27011,8 @@
       <c r="E705" t="s">
         <v>967</v>
       </c>
-      <c r="F705" s="4">
-        <v>44075</v>
+      <c r="F705" s="4" t="s">
+        <v>1234</v>
       </c>
       <c r="G705" t="s">
         <v>912</v>
@@ -26625,8 +27051,8 @@
       <c r="E706" t="s">
         <v>967</v>
       </c>
-      <c r="F706" s="4">
-        <v>44075</v>
+      <c r="F706" s="4" t="s">
+        <v>1234</v>
       </c>
       <c r="G706" t="s">
         <v>912</v>
@@ -26668,8 +27094,8 @@
       <c r="E707" t="s">
         <v>968</v>
       </c>
-      <c r="F707" s="4">
-        <v>43466</v>
+      <c r="F707" s="4" t="s">
+        <v>1235</v>
       </c>
       <c r="G707" t="s">
         <v>911</v>
@@ -26711,8 +27137,8 @@
       <c r="E708" t="s">
         <v>969</v>
       </c>
-      <c r="F708" s="4">
-        <v>45170</v>
+      <c r="F708" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G708" t="s">
         <v>912</v>
@@ -26754,8 +27180,8 @@
       <c r="E709" t="s">
         <v>970</v>
       </c>
-      <c r="F709" s="4">
-        <v>43344</v>
+      <c r="F709" s="4" t="s">
+        <v>1236</v>
       </c>
       <c r="G709" t="s">
         <v>912</v>
@@ -26797,8 +27223,8 @@
       <c r="E710" t="s">
         <v>925</v>
       </c>
-      <c r="F710" s="4">
-        <v>43709</v>
+      <c r="F710" s="4" t="s">
+        <v>1198</v>
       </c>
       <c r="G710" t="s">
         <v>912</v>
@@ -26840,8 +27266,8 @@
       <c r="E711" t="s">
         <v>971</v>
       </c>
-      <c r="F711" s="4">
-        <v>45231</v>
+      <c r="F711" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G711" t="s">
         <v>912</v>
@@ -26883,8 +27309,8 @@
       <c r="E712" t="s">
         <v>971</v>
       </c>
-      <c r="F712" s="4">
-        <v>45231</v>
+      <c r="F712" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G712" t="s">
         <v>912</v>
@@ -26926,8 +27352,8 @@
       <c r="E713" t="s">
         <v>971</v>
       </c>
-      <c r="F713" s="4">
-        <v>45231</v>
+      <c r="F713" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G713" t="s">
         <v>912</v>
@@ -26966,8 +27392,8 @@
       <c r="E714" t="s">
         <v>972</v>
       </c>
-      <c r="F714" s="4">
-        <v>31929</v>
+      <c r="F714" s="4" t="s">
+        <v>1237</v>
       </c>
       <c r="G714" t="s">
         <v>912</v>
@@ -27009,8 +27435,8 @@
       <c r="E715" t="s">
         <v>973</v>
       </c>
-      <c r="F715" s="4">
-        <v>43070</v>
+      <c r="F715" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="G715" t="s">
         <v>913</v>
@@ -27052,8 +27478,8 @@
       <c r="E716" t="s">
         <v>974</v>
       </c>
-      <c r="F716" s="4">
-        <v>44197</v>
+      <c r="F716" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="G716" t="s">
         <v>911</v>
@@ -27095,8 +27521,8 @@
       <c r="E717" t="s">
         <v>975</v>
       </c>
-      <c r="F717" s="4">
-        <v>44927</v>
+      <c r="F717" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G717" t="s">
         <v>911</v>
@@ -27135,8 +27561,8 @@
       <c r="E718" t="s">
         <v>976</v>
       </c>
-      <c r="F718" s="4">
-        <v>43556</v>
+      <c r="F718" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G718" t="s">
         <v>911</v>
@@ -27175,8 +27601,8 @@
       <c r="E719" t="s">
         <v>976</v>
       </c>
-      <c r="F719" s="4">
-        <v>43556</v>
+      <c r="F719" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G719" t="s">
         <v>911</v>
@@ -27218,8 +27644,8 @@
       <c r="E720" t="s">
         <v>977</v>
       </c>
-      <c r="F720" s="4">
-        <v>45231</v>
+      <c r="F720" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G720" t="s">
         <v>911</v>
@@ -27261,8 +27687,8 @@
       <c r="E721" t="s">
         <v>946</v>
       </c>
-      <c r="F721" s="4">
-        <v>45200</v>
+      <c r="F721" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G721" t="s">
         <v>911</v>
@@ -27301,8 +27727,8 @@
       <c r="E722" t="s">
         <v>978</v>
       </c>
-      <c r="F722" s="4">
-        <v>45017</v>
+      <c r="F722" s="4" t="s">
+        <v>1211</v>
       </c>
       <c r="G722" t="s">
         <v>911</v>
@@ -27344,8 +27770,8 @@
       <c r="E723" t="s">
         <v>979</v>
       </c>
-      <c r="F723" s="4">
-        <v>32905</v>
+      <c r="F723" s="4" t="s">
+        <v>1240</v>
       </c>
       <c r="G723" t="s">
         <v>911</v>
@@ -27387,8 +27813,8 @@
       <c r="E724" t="s">
         <v>956</v>
       </c>
-      <c r="F724" s="4">
-        <v>33878</v>
+      <c r="F724" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="G724" t="s">
         <v>912</v>
@@ -27430,8 +27856,8 @@
       <c r="E725" t="s">
         <v>956</v>
       </c>
-      <c r="F725" s="4">
-        <v>33878</v>
+      <c r="F725" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="G725" t="s">
         <v>912</v>
@@ -27473,8 +27899,8 @@
       <c r="E726" t="s">
         <v>956</v>
       </c>
-      <c r="F726" s="4">
-        <v>33878</v>
+      <c r="F726" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="G726" t="s">
         <v>912</v>
@@ -27516,8 +27942,8 @@
       <c r="E727" t="s">
         <v>956</v>
       </c>
-      <c r="F727" s="4">
-        <v>33878</v>
+      <c r="F727" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="G727" t="s">
         <v>912</v>
@@ -27559,8 +27985,8 @@
       <c r="E728" t="s">
         <v>956</v>
       </c>
-      <c r="F728" s="4">
-        <v>33878</v>
+      <c r="F728" s="4" t="s">
+        <v>1224</v>
       </c>
       <c r="G728" t="s">
         <v>912</v>
@@ -27602,8 +28028,8 @@
       <c r="E729" t="s">
         <v>980</v>
       </c>
-      <c r="F729" s="4">
-        <v>44075</v>
+      <c r="F729" s="4" t="s">
+        <v>1234</v>
       </c>
       <c r="G729" t="s">
         <v>912</v>
@@ -27642,8 +28068,8 @@
       <c r="E730" t="s">
         <v>981</v>
       </c>
-      <c r="F730" s="4">
-        <v>35827</v>
+      <c r="F730" s="4" t="s">
+        <v>1241</v>
       </c>
       <c r="G730" t="s">
         <v>911</v>
@@ -27685,8 +28111,8 @@
       <c r="E731" t="s">
         <v>982</v>
       </c>
-      <c r="F731" s="4">
-        <v>35947</v>
+      <c r="F731" s="4" t="s">
+        <v>1242</v>
       </c>
       <c r="G731" t="s">
         <v>912</v>
@@ -27728,8 +28154,8 @@
       <c r="E732" t="s">
         <v>983</v>
       </c>
-      <c r="F732" s="4">
-        <v>44013</v>
+      <c r="F732" s="4" t="s">
+        <v>1204</v>
       </c>
       <c r="G732" t="s">
         <v>912</v>
@@ -27768,8 +28194,8 @@
       <c r="E733" t="s">
         <v>984</v>
       </c>
-      <c r="F733" s="4">
-        <v>32387</v>
+      <c r="F733" s="4" t="s">
+        <v>1243</v>
       </c>
       <c r="G733" t="s">
         <v>912</v>
@@ -27808,8 +28234,8 @@
       <c r="E734" t="s">
         <v>984</v>
       </c>
-      <c r="F734" s="4">
-        <v>32387</v>
+      <c r="F734" s="4" t="s">
+        <v>1243</v>
       </c>
       <c r="G734" t="s">
         <v>912</v>
@@ -27848,8 +28274,8 @@
       <c r="E735" t="s">
         <v>984</v>
       </c>
-      <c r="F735" s="4">
-        <v>32387</v>
+      <c r="F735" s="4" t="s">
+        <v>1243</v>
       </c>
       <c r="G735" t="s">
         <v>912</v>
@@ -27891,8 +28317,8 @@
       <c r="E736" t="s">
         <v>985</v>
       </c>
-      <c r="F736" s="4">
-        <v>41944</v>
+      <c r="F736" s="4" t="s">
+        <v>1244</v>
       </c>
       <c r="G736" t="s">
         <v>913</v>
@@ -27934,8 +28360,8 @@
       <c r="E737" t="s">
         <v>986</v>
       </c>
-      <c r="F737" s="4">
-        <v>44986</v>
+      <c r="F737" s="4" t="s">
+        <v>1245</v>
       </c>
       <c r="G737" t="s">
         <v>912</v>
@@ -27974,8 +28400,8 @@
       <c r="E738" t="s">
         <v>987</v>
       </c>
-      <c r="F738" s="4">
-        <v>44105</v>
+      <c r="F738" s="4" t="s">
+        <v>1199</v>
       </c>
       <c r="G738" t="s">
         <v>912</v>
@@ -28017,8 +28443,8 @@
       <c r="E739" t="s">
         <v>959</v>
       </c>
-      <c r="F739" s="4">
-        <v>33482</v>
+      <c r="F739" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="G739" t="s">
         <v>912</v>
@@ -28057,8 +28483,8 @@
       <c r="E740" t="s">
         <v>988</v>
       </c>
-      <c r="F740" s="4">
-        <v>45231</v>
+      <c r="F740" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G740" t="s">
         <v>911</v>
@@ -28097,8 +28523,8 @@
       <c r="E741" t="s">
         <v>988</v>
       </c>
-      <c r="F741" s="4">
-        <v>45231</v>
+      <c r="F741" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G741" t="s">
         <v>911</v>
@@ -28140,8 +28566,8 @@
       <c r="E742" t="s">
         <v>989</v>
       </c>
-      <c r="F742" s="4">
-        <v>28004</v>
+      <c r="F742" s="4" t="s">
+        <v>1246</v>
       </c>
       <c r="G742" t="s">
         <v>912</v>
@@ -28180,8 +28606,8 @@
       <c r="E743" t="s">
         <v>990</v>
       </c>
-      <c r="F743" s="4">
-        <v>45231</v>
+      <c r="F743" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G743" t="s">
         <v>911</v>
@@ -28223,8 +28649,8 @@
       <c r="E744" t="s">
         <v>991</v>
       </c>
-      <c r="F744" s="4">
-        <v>44197</v>
+      <c r="F744" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="G744" t="s">
         <v>911</v>
@@ -28266,8 +28692,8 @@
       <c r="E745" t="s">
         <v>992</v>
       </c>
-      <c r="F745" s="4">
-        <v>30713</v>
+      <c r="F745" s="4" t="s">
+        <v>1247</v>
       </c>
       <c r="G745" t="s">
         <v>911</v>
@@ -28306,8 +28732,8 @@
       <c r="E746" t="s">
         <v>993</v>
       </c>
-      <c r="F746" s="4">
-        <v>45231</v>
+      <c r="F746" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G746" t="s">
         <v>913</v>
@@ -28346,8 +28772,8 @@
       <c r="E747" t="s">
         <v>993</v>
       </c>
-      <c r="F747" s="4">
-        <v>45231</v>
+      <c r="F747" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G747" t="s">
         <v>913</v>
@@ -28389,8 +28815,8 @@
       <c r="E748" t="s">
         <v>994</v>
       </c>
-      <c r="F748" s="4">
-        <v>32143</v>
+      <c r="F748" s="4" t="s">
+        <v>1248</v>
       </c>
       <c r="G748" t="s">
         <v>911</v>
@@ -28432,8 +28858,8 @@
       <c r="E749" t="s">
         <v>995</v>
       </c>
-      <c r="F749" s="4">
-        <v>45139</v>
+      <c r="F749" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G749" t="s">
         <v>913</v>
@@ -28472,8 +28898,8 @@
       <c r="E750" t="s">
         <v>996</v>
       </c>
-      <c r="F750" s="4">
-        <v>43862</v>
+      <c r="F750" s="4" t="s">
+        <v>1249</v>
       </c>
       <c r="G750" t="s">
         <v>911</v>
@@ -28515,8 +28941,8 @@
       <c r="E751" t="s">
         <v>997</v>
       </c>
-      <c r="F751" s="4">
-        <v>42826</v>
+      <c r="F751" s="4" t="s">
+        <v>1250</v>
       </c>
       <c r="G751" t="s">
         <v>911</v>
@@ -28558,8 +28984,8 @@
       <c r="E752" t="s">
         <v>998</v>
       </c>
-      <c r="F752" s="4">
-        <v>44927</v>
+      <c r="F752" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G752" t="s">
         <v>911</v>
@@ -28601,8 +29027,8 @@
       <c r="E753" t="s">
         <v>998</v>
       </c>
-      <c r="F753" s="4">
-        <v>44927</v>
+      <c r="F753" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G753" t="s">
         <v>911</v>
@@ -28644,8 +29070,8 @@
       <c r="E754" t="s">
         <v>998</v>
       </c>
-      <c r="F754" s="4">
-        <v>44927</v>
+      <c r="F754" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G754" t="s">
         <v>911</v>
@@ -28687,8 +29113,8 @@
       <c r="E755" t="s">
         <v>998</v>
       </c>
-      <c r="F755" s="4">
-        <v>44927</v>
+      <c r="F755" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G755" t="s">
         <v>911</v>
@@ -28730,8 +29156,8 @@
       <c r="E756" t="s">
         <v>994</v>
       </c>
-      <c r="F756" s="4">
-        <v>32143</v>
+      <c r="F756" s="4" t="s">
+        <v>1248</v>
       </c>
       <c r="G756" t="s">
         <v>911</v>
@@ -28770,8 +29196,8 @@
       <c r="E757" t="s">
         <v>999</v>
       </c>
-      <c r="F757" s="4">
-        <v>45078</v>
+      <c r="F757" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G757" t="s">
         <v>912</v>
@@ -28813,8 +29239,8 @@
       <c r="E758" t="s">
         <v>1000</v>
       </c>
-      <c r="F758" s="4">
-        <v>42948</v>
+      <c r="F758" s="4" t="s">
+        <v>1251</v>
       </c>
       <c r="G758" t="s">
         <v>912</v>
@@ -28853,8 +29279,8 @@
       <c r="E759" t="s">
         <v>1001</v>
       </c>
-      <c r="F759" s="4">
-        <v>41579</v>
+      <c r="F759" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G759" t="s">
         <v>913</v>
@@ -28893,8 +29319,8 @@
       <c r="E760" t="s">
         <v>1002</v>
       </c>
-      <c r="F760" s="4">
-        <v>41791</v>
+      <c r="F760" s="4" t="s">
+        <v>1253</v>
       </c>
       <c r="G760" t="s">
         <v>912</v>
@@ -28933,8 +29359,8 @@
       <c r="E761" t="s">
         <v>1002</v>
       </c>
-      <c r="F761" s="4">
-        <v>41791</v>
+      <c r="F761" s="4" t="s">
+        <v>1253</v>
       </c>
       <c r="G761" t="s">
         <v>912</v>
@@ -28973,8 +29399,8 @@
       <c r="E762" t="s">
         <v>1002</v>
       </c>
-      <c r="F762" s="4">
-        <v>41791</v>
+      <c r="F762" s="4" t="s">
+        <v>1253</v>
       </c>
       <c r="G762" t="s">
         <v>912</v>
@@ -29016,8 +29442,8 @@
       <c r="E763" t="s">
         <v>946</v>
       </c>
-      <c r="F763" s="4">
-        <v>45200</v>
+      <c r="F763" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G763" t="s">
         <v>911</v>
@@ -29059,8 +29485,8 @@
       <c r="E764" t="s">
         <v>926</v>
       </c>
-      <c r="F764" s="4">
-        <v>44105</v>
+      <c r="F764" s="4" t="s">
+        <v>1199</v>
       </c>
       <c r="G764" t="s">
         <v>912</v>
@@ -29102,8 +29528,8 @@
       <c r="E765" t="s">
         <v>1003</v>
       </c>
-      <c r="F765" s="4">
-        <v>30987</v>
+      <c r="F765" s="4" t="s">
+        <v>1254</v>
       </c>
       <c r="G765" t="s">
         <v>913</v>
@@ -29145,8 +29571,8 @@
       <c r="E766" t="s">
         <v>1004</v>
       </c>
-      <c r="F766" s="4">
-        <v>44166</v>
+      <c r="F766" s="4" t="s">
+        <v>1255</v>
       </c>
       <c r="G766" t="s">
         <v>913</v>
@@ -29188,8 +29614,8 @@
       <c r="E767" t="s">
         <v>1005</v>
       </c>
-      <c r="F767" s="4">
-        <v>41579</v>
+      <c r="F767" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G767" t="s">
         <v>913</v>
@@ -29231,8 +29657,8 @@
       <c r="E768" t="s">
         <v>1005</v>
       </c>
-      <c r="F768" s="4">
-        <v>41579</v>
+      <c r="F768" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G768" t="s">
         <v>913</v>
@@ -29274,8 +29700,8 @@
       <c r="E769" t="s">
         <v>943</v>
       </c>
-      <c r="F769" s="4">
-        <v>43221</v>
+      <c r="F769" s="4" t="s">
+        <v>1214</v>
       </c>
       <c r="G769" t="s">
         <v>911</v>
@@ -29317,8 +29743,8 @@
       <c r="E770" t="s">
         <v>1006</v>
       </c>
-      <c r="F770" s="4">
-        <v>42552</v>
+      <c r="F770" s="4" t="s">
+        <v>1256</v>
       </c>
       <c r="G770" t="s">
         <v>912</v>
@@ -29360,8 +29786,8 @@
       <c r="E771" t="s">
         <v>1007</v>
       </c>
-      <c r="F771" s="4">
-        <v>42614</v>
+      <c r="F771" s="4" t="s">
+        <v>1257</v>
       </c>
       <c r="G771" t="s">
         <v>912</v>
@@ -29403,8 +29829,8 @@
       <c r="E772" t="s">
         <v>1008</v>
       </c>
-      <c r="F772" s="4">
-        <v>45108</v>
+      <c r="F772" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G772" t="s">
         <v>912</v>
@@ -29446,8 +29872,8 @@
       <c r="E773" t="s">
         <v>1009</v>
       </c>
-      <c r="F773" s="4">
-        <v>35065</v>
+      <c r="F773" s="4" t="s">
+        <v>1258</v>
       </c>
       <c r="G773" t="s">
         <v>911</v>
@@ -29489,8 +29915,8 @@
       <c r="E774" t="s">
         <v>1009</v>
       </c>
-      <c r="F774" s="4">
-        <v>35065</v>
+      <c r="F774" s="4" t="s">
+        <v>1258</v>
       </c>
       <c r="G774" t="s">
         <v>911</v>
@@ -29532,8 +29958,8 @@
       <c r="E775" t="s">
         <v>1009</v>
       </c>
-      <c r="F775" s="4">
-        <v>35065</v>
+      <c r="F775" s="4" t="s">
+        <v>1258</v>
       </c>
       <c r="G775" t="s">
         <v>911</v>
@@ -29575,8 +30001,8 @@
       <c r="E776" t="s">
         <v>1009</v>
       </c>
-      <c r="F776" s="4">
-        <v>35065</v>
+      <c r="F776" s="4" t="s">
+        <v>1258</v>
       </c>
       <c r="G776" t="s">
         <v>911</v>
@@ -29618,8 +30044,8 @@
       <c r="E777" t="s">
         <v>1010</v>
       </c>
-      <c r="F777" s="4">
-        <v>45139</v>
+      <c r="F777" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G777" t="s">
         <v>912</v>
@@ -29661,8 +30087,8 @@
       <c r="E778" t="s">
         <v>955</v>
       </c>
-      <c r="F778" s="4">
-        <v>43070</v>
+      <c r="F778" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="G778" t="s">
         <v>913</v>
@@ -29704,8 +30130,8 @@
       <c r="E779" t="s">
         <v>1011</v>
       </c>
-      <c r="F779" s="4">
-        <v>43221</v>
+      <c r="F779" s="4" t="s">
+        <v>1214</v>
       </c>
       <c r="G779" t="s">
         <v>911</v>
@@ -29747,8 +30173,8 @@
       <c r="E780" t="s">
         <v>1012</v>
       </c>
-      <c r="F780" s="4">
-        <v>41456</v>
+      <c r="F780" s="4" t="s">
+        <v>1259</v>
       </c>
       <c r="G780" t="s">
         <v>912</v>
@@ -29787,8 +30213,8 @@
       <c r="E781" t="s">
         <v>1013</v>
       </c>
-      <c r="F781" s="4">
-        <v>42856</v>
+      <c r="F781" s="4" t="s">
+        <v>1212</v>
       </c>
       <c r="G781" t="s">
         <v>911</v>
@@ -29827,8 +30253,8 @@
       <c r="E782" t="s">
         <v>1013</v>
       </c>
-      <c r="F782" s="4">
-        <v>42856</v>
+      <c r="F782" s="4" t="s">
+        <v>1212</v>
       </c>
       <c r="G782" t="s">
         <v>911</v>
@@ -29867,8 +30293,8 @@
       <c r="E783" t="s">
         <v>1013</v>
       </c>
-      <c r="F783" s="4">
-        <v>42856</v>
+      <c r="F783" s="4" t="s">
+        <v>1212</v>
       </c>
       <c r="G783" t="s">
         <v>911</v>
@@ -29907,8 +30333,8 @@
       <c r="E784" t="s">
         <v>1014</v>
       </c>
-      <c r="F784" s="4">
-        <v>45139</v>
+      <c r="F784" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G784" t="s">
         <v>911</v>
@@ -29950,8 +30376,8 @@
       <c r="E785" t="s">
         <v>1015</v>
       </c>
-      <c r="F785" s="4">
-        <v>35339</v>
+      <c r="F785" s="4" t="s">
+        <v>1208</v>
       </c>
       <c r="G785" t="s">
         <v>912</v>
@@ -29993,8 +30419,8 @@
       <c r="E786" t="s">
         <v>969</v>
       </c>
-      <c r="F786" s="4">
-        <v>45170</v>
+      <c r="F786" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G786" t="s">
         <v>912</v>
@@ -30036,8 +30462,8 @@
       <c r="E787" t="s">
         <v>963</v>
       </c>
-      <c r="F787" s="4">
-        <v>42979</v>
+      <c r="F787" s="4" t="s">
+        <v>1230</v>
       </c>
       <c r="G787" t="s">
         <v>912</v>
@@ -30079,8 +30505,8 @@
       <c r="E788" t="s">
         <v>1016</v>
       </c>
-      <c r="F788" s="4">
-        <v>44958</v>
+      <c r="F788" s="4" t="s">
+        <v>1260</v>
       </c>
       <c r="G788" t="s">
         <v>912</v>
@@ -30122,8 +30548,8 @@
       <c r="E789" t="s">
         <v>1016</v>
       </c>
-      <c r="F789" s="4">
-        <v>44958</v>
+      <c r="F789" s="4" t="s">
+        <v>1260</v>
       </c>
       <c r="G789" t="s">
         <v>912</v>
@@ -30165,8 +30591,8 @@
       <c r="E790" t="s">
         <v>1017</v>
       </c>
-      <c r="F790" s="4">
-        <v>43101</v>
+      <c r="F790" s="4" t="s">
+        <v>1261</v>
       </c>
       <c r="G790" t="s">
         <v>911</v>
@@ -30208,8 +30634,8 @@
       <c r="E791" t="s">
         <v>942</v>
       </c>
-      <c r="F791" s="4">
-        <v>32509</v>
+      <c r="F791" s="4" t="s">
+        <v>1213</v>
       </c>
       <c r="G791" t="s">
         <v>911</v>
@@ -30251,8 +30677,8 @@
       <c r="E792" t="s">
         <v>1018</v>
       </c>
-      <c r="F792" s="4">
-        <v>43831</v>
+      <c r="F792" s="4" t="s">
+        <v>1262</v>
       </c>
       <c r="G792" t="s">
         <v>911</v>
@@ -30294,8 +30720,8 @@
       <c r="E793" t="s">
         <v>1019</v>
       </c>
-      <c r="F793" s="4">
-        <v>41609</v>
+      <c r="F793" s="4" t="s">
+        <v>1263</v>
       </c>
       <c r="G793" t="s">
         <v>913</v>
@@ -30337,8 +30763,8 @@
       <c r="E794" t="s">
         <v>1020</v>
       </c>
-      <c r="F794" s="4">
-        <v>43678</v>
+      <c r="F794" s="4" t="s">
+        <v>1207</v>
       </c>
       <c r="G794" t="s">
         <v>912</v>
@@ -30380,8 +30806,8 @@
       <c r="E795" t="s">
         <v>1020</v>
       </c>
-      <c r="F795" s="4">
-        <v>43678</v>
+      <c r="F795" s="4" t="s">
+        <v>1207</v>
       </c>
       <c r="G795" t="s">
         <v>912</v>
@@ -30423,8 +30849,8 @@
       <c r="E796" t="s">
         <v>1020</v>
       </c>
-      <c r="F796" s="4">
-        <v>43678</v>
+      <c r="F796" s="4" t="s">
+        <v>1207</v>
       </c>
       <c r="G796" t="s">
         <v>912</v>
@@ -30466,8 +30892,8 @@
       <c r="E797" t="s">
         <v>1020</v>
       </c>
-      <c r="F797" s="4">
-        <v>43678</v>
+      <c r="F797" s="4" t="s">
+        <v>1207</v>
       </c>
       <c r="G797" t="s">
         <v>912</v>
@@ -30506,8 +30932,8 @@
       <c r="E798" t="s">
         <v>1021</v>
       </c>
-      <c r="F798" s="4">
-        <v>43617</v>
+      <c r="F798" s="4" t="s">
+        <v>1264</v>
       </c>
       <c r="G798" t="s">
         <v>912</v>
@@ -30546,8 +30972,8 @@
       <c r="E799" t="s">
         <v>1022</v>
       </c>
-      <c r="F799" s="4">
-        <v>33147</v>
+      <c r="F799" s="4" t="s">
+        <v>1265</v>
       </c>
       <c r="G799" t="s">
         <v>912</v>
@@ -30589,8 +31015,8 @@
       <c r="E800" t="s">
         <v>1023</v>
       </c>
-      <c r="F800" s="4">
-        <v>45261</v>
+      <c r="F800" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G800" t="s">
         <v>911</v>
@@ -30632,8 +31058,8 @@
       <c r="E801" t="s">
         <v>999</v>
       </c>
-      <c r="F801" s="4">
-        <v>45078</v>
+      <c r="F801" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G801" t="s">
         <v>912</v>
@@ -30675,8 +31101,8 @@
       <c r="E802" t="s">
         <v>1024</v>
       </c>
-      <c r="F802" s="4">
-        <v>45261</v>
+      <c r="F802" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G802" t="s">
         <v>912</v>
@@ -30718,8 +31144,8 @@
       <c r="E803" t="s">
         <v>1024</v>
       </c>
-      <c r="F803" s="4">
-        <v>45261</v>
+      <c r="F803" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G803" t="s">
         <v>912</v>
@@ -30758,8 +31184,8 @@
       <c r="E804" t="s">
         <v>1008</v>
       </c>
-      <c r="F804" s="4">
-        <v>45108</v>
+      <c r="F804" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G804" t="s">
         <v>912</v>
@@ -30801,8 +31227,8 @@
       <c r="E805" t="s">
         <v>1014</v>
       </c>
-      <c r="F805" s="4">
-        <v>45139</v>
+      <c r="F805" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G805" t="s">
         <v>911</v>
@@ -30841,8 +31267,8 @@
       <c r="E806" t="s">
         <v>1025</v>
       </c>
-      <c r="F806" s="4">
-        <v>30773</v>
+      <c r="F806" s="4" t="s">
+        <v>1267</v>
       </c>
       <c r="G806" t="s">
         <v>911</v>
@@ -30884,8 +31310,8 @@
       <c r="E807" t="s">
         <v>938</v>
       </c>
-      <c r="F807" s="4">
-        <v>35704</v>
+      <c r="F807" s="4" t="s">
+        <v>1209</v>
       </c>
       <c r="G807" t="s">
         <v>912</v>
@@ -30924,8 +31350,8 @@
       <c r="E808" t="s">
         <v>1026</v>
       </c>
-      <c r="F808" s="4">
-        <v>45261</v>
+      <c r="F808" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G808" t="s">
         <v>911</v>
@@ -30964,8 +31390,8 @@
       <c r="E809" t="s">
         <v>1026</v>
       </c>
-      <c r="F809" s="4">
-        <v>45261</v>
+      <c r="F809" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G809" t="s">
         <v>911</v>
@@ -31004,8 +31430,8 @@
       <c r="E810" t="s">
         <v>1026</v>
       </c>
-      <c r="F810" s="4">
-        <v>45261</v>
+      <c r="F810" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G810" t="s">
         <v>911</v>
@@ -31047,8 +31473,8 @@
       <c r="E811" t="s">
         <v>925</v>
       </c>
-      <c r="F811" s="4">
-        <v>43709</v>
+      <c r="F811" s="4" t="s">
+        <v>1198</v>
       </c>
       <c r="G811" t="s">
         <v>912</v>
@@ -31087,8 +31513,8 @@
       <c r="E812" t="s">
         <v>985</v>
       </c>
-      <c r="F812" s="4">
-        <v>41944</v>
+      <c r="F812" s="4" t="s">
+        <v>1244</v>
       </c>
       <c r="G812" t="s">
         <v>913</v>
@@ -31130,8 +31556,8 @@
       <c r="E813" t="s">
         <v>933</v>
       </c>
-      <c r="F813" s="4">
-        <v>41518</v>
+      <c r="F813" s="4" t="s">
+        <v>1205</v>
       </c>
       <c r="G813" t="s">
         <v>912</v>
@@ -31173,8 +31599,8 @@
       <c r="E814" t="s">
         <v>1027</v>
       </c>
-      <c r="F814" s="4">
-        <v>31594</v>
+      <c r="F814" s="4" t="s">
+        <v>1268</v>
       </c>
       <c r="G814" t="s">
         <v>912</v>
@@ -31213,8 +31639,8 @@
       <c r="E815" t="s">
         <v>1028</v>
       </c>
-      <c r="F815" s="4">
-        <v>45047</v>
+      <c r="F815" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G815" t="s">
         <v>913</v>
@@ -31253,8 +31679,8 @@
       <c r="E816" t="s">
         <v>1028</v>
       </c>
-      <c r="F816" s="4">
-        <v>45047</v>
+      <c r="F816" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G816" t="s">
         <v>913</v>
@@ -31293,8 +31719,8 @@
       <c r="E817" t="s">
         <v>1028</v>
       </c>
-      <c r="F817" s="4">
-        <v>45047</v>
+      <c r="F817" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G817" t="s">
         <v>913</v>
@@ -31336,8 +31762,8 @@
       <c r="E818" t="s">
         <v>1029</v>
       </c>
-      <c r="F818" s="4">
-        <v>44256</v>
+      <c r="F818" s="4" t="s">
+        <v>1269</v>
       </c>
       <c r="G818" t="s">
         <v>911</v>
@@ -31379,8 +31805,8 @@
       <c r="E819" t="s">
         <v>1030</v>
       </c>
-      <c r="F819" s="4">
-        <v>45261</v>
+      <c r="F819" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G819" t="s">
         <v>912</v>
@@ -31422,8 +31848,8 @@
       <c r="E820" t="s">
         <v>1031</v>
       </c>
-      <c r="F820" s="4">
-        <v>43466</v>
+      <c r="F820" s="4" t="s">
+        <v>1235</v>
       </c>
       <c r="G820" t="s">
         <v>911</v>
@@ -31465,8 +31891,8 @@
       <c r="E821" t="s">
         <v>1032</v>
       </c>
-      <c r="F821" s="4">
-        <v>45200</v>
+      <c r="F821" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G821" t="s">
         <v>911</v>
@@ -31505,8 +31931,8 @@
       <c r="E822" t="s">
         <v>1033</v>
       </c>
-      <c r="F822" s="4">
-        <v>45200</v>
+      <c r="F822" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G822" t="s">
         <v>911</v>
@@ -31545,8 +31971,8 @@
       <c r="E823" t="s">
         <v>1033</v>
       </c>
-      <c r="F823" s="4">
-        <v>45200</v>
+      <c r="F823" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G823" t="s">
         <v>911</v>
@@ -31588,8 +32014,8 @@
       <c r="E824" t="s">
         <v>1034</v>
       </c>
-      <c r="F824" s="4">
-        <v>44958</v>
+      <c r="F824" s="4" t="s">
+        <v>1260</v>
       </c>
       <c r="G824" t="s">
         <v>911</v>
@@ -31631,8 +32057,8 @@
       <c r="E825" t="s">
         <v>1035</v>
       </c>
-      <c r="F825" s="4">
-        <v>45170</v>
+      <c r="F825" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G825" t="s">
         <v>912</v>
@@ -31671,8 +32097,8 @@
       <c r="E826" t="s">
         <v>1036</v>
       </c>
-      <c r="F826" s="4">
-        <v>43556</v>
+      <c r="F826" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G826" t="s">
         <v>911</v>
@@ -31714,8 +32140,8 @@
       <c r="E827" t="s">
         <v>1037</v>
       </c>
-      <c r="F827" s="4">
-        <v>45047</v>
+      <c r="F827" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G827" t="s">
         <v>911</v>
@@ -31757,8 +32183,8 @@
       <c r="E828" t="s">
         <v>1038</v>
       </c>
-      <c r="F828" s="4">
-        <v>45200</v>
+      <c r="F828" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G828" t="s">
         <v>911</v>
@@ -31800,8 +32226,8 @@
       <c r="E829" t="s">
         <v>1038</v>
       </c>
-      <c r="F829" s="4">
-        <v>45200</v>
+      <c r="F829" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G829" t="s">
         <v>911</v>
@@ -31843,8 +32269,8 @@
       <c r="E830" t="s">
         <v>1038</v>
       </c>
-      <c r="F830" s="4">
-        <v>45200</v>
+      <c r="F830" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G830" t="s">
         <v>911</v>
@@ -31886,8 +32312,8 @@
       <c r="E831" t="s">
         <v>1038</v>
       </c>
-      <c r="F831" s="4">
-        <v>45200</v>
+      <c r="F831" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G831" t="s">
         <v>911</v>
@@ -31929,8 +32355,8 @@
       <c r="E832" t="s">
         <v>1038</v>
       </c>
-      <c r="F832" s="4">
-        <v>45200</v>
+      <c r="F832" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G832" t="s">
         <v>911</v>
@@ -31972,8 +32398,8 @@
       <c r="E833" t="s">
         <v>1038</v>
       </c>
-      <c r="F833" s="4">
-        <v>45200</v>
+      <c r="F833" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G833" t="s">
         <v>911</v>
@@ -32012,8 +32438,8 @@
       <c r="E834" t="s">
         <v>1039</v>
       </c>
-      <c r="F834" s="4">
-        <v>43678</v>
+      <c r="F834" s="4" t="s">
+        <v>1207</v>
       </c>
       <c r="G834" t="s">
         <v>912</v>
@@ -32055,8 +32481,8 @@
       <c r="E835" t="s">
         <v>966</v>
       </c>
-      <c r="F835" s="4">
-        <v>28703</v>
+      <c r="F835" s="4" t="s">
+        <v>1233</v>
       </c>
       <c r="G835" t="s">
         <v>912</v>
@@ -32098,8 +32524,8 @@
       <c r="E836" t="s">
         <v>932</v>
       </c>
-      <c r="F836" s="4">
-        <v>44013</v>
+      <c r="F836" s="4" t="s">
+        <v>1204</v>
       </c>
       <c r="G836" t="s">
         <v>912</v>
@@ -32138,8 +32564,8 @@
       <c r="E837" t="s">
         <v>924</v>
       </c>
-      <c r="F837" s="4">
-        <v>42309</v>
+      <c r="F837" s="4" t="s">
+        <v>1197</v>
       </c>
       <c r="G837" t="s">
         <v>913</v>
@@ -32181,8 +32607,8 @@
       <c r="E838" t="s">
         <v>1040</v>
       </c>
-      <c r="F838" s="4">
-        <v>45231</v>
+      <c r="F838" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G838" t="s">
         <v>912</v>
@@ -32224,8 +32650,8 @@
       <c r="E839" t="s">
         <v>1040</v>
       </c>
-      <c r="F839" s="4">
-        <v>45231</v>
+      <c r="F839" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G839" t="s">
         <v>912</v>
@@ -32267,8 +32693,8 @@
       <c r="E840" t="s">
         <v>1040</v>
       </c>
-      <c r="F840" s="4">
-        <v>45231</v>
+      <c r="F840" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G840" t="s">
         <v>912</v>
@@ -32310,8 +32736,8 @@
       <c r="E841" t="s">
         <v>1040</v>
       </c>
-      <c r="F841" s="4">
-        <v>45231</v>
+      <c r="F841" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G841" t="s">
         <v>912</v>
@@ -32350,8 +32776,8 @@
       <c r="E842" t="s">
         <v>1028</v>
       </c>
-      <c r="F842" s="4">
-        <v>45047</v>
+      <c r="F842" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G842" t="s">
         <v>913</v>
@@ -32390,8 +32816,8 @@
       <c r="E843" t="s">
         <v>989</v>
       </c>
-      <c r="F843" s="4">
-        <v>28004</v>
+      <c r="F843" s="4" t="s">
+        <v>1246</v>
       </c>
       <c r="G843" t="s">
         <v>912</v>
@@ -32433,8 +32859,8 @@
       <c r="E844" t="s">
         <v>1041</v>
       </c>
-      <c r="F844" s="4">
-        <v>34121</v>
+      <c r="F844" s="4" t="s">
+        <v>1270</v>
       </c>
       <c r="G844" t="s">
         <v>912</v>
@@ -32476,8 +32902,8 @@
       <c r="E845" t="s">
         <v>1042</v>
       </c>
-      <c r="F845" s="4">
-        <v>45231</v>
+      <c r="F845" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G845" t="s">
         <v>912</v>
@@ -32516,8 +32942,8 @@
       <c r="E846" t="s">
         <v>1043</v>
       </c>
-      <c r="F846" s="4">
-        <v>45200</v>
+      <c r="F846" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G846" t="s">
         <v>913</v>
@@ -32556,8 +32982,8 @@
       <c r="E847" t="s">
         <v>1043</v>
       </c>
-      <c r="F847" s="4">
-        <v>45200</v>
+      <c r="F847" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G847" t="s">
         <v>913</v>
@@ -32599,8 +33025,8 @@
       <c r="E848" t="s">
         <v>1044</v>
       </c>
-      <c r="F848" s="4">
-        <v>43556</v>
+      <c r="F848" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G848" t="s">
         <v>911</v>
@@ -32639,8 +33065,8 @@
       <c r="E849" t="s">
         <v>1007</v>
       </c>
-      <c r="F849" s="4">
-        <v>42614</v>
+      <c r="F849" s="4" t="s">
+        <v>1257</v>
       </c>
       <c r="G849" t="s">
         <v>912</v>
@@ -32679,8 +33105,8 @@
       <c r="E850" t="s">
         <v>1045</v>
       </c>
-      <c r="F850" s="4">
-        <v>45231</v>
+      <c r="F850" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G850" t="s">
         <v>913</v>
@@ -32722,8 +33148,8 @@
       <c r="E851" t="s">
         <v>1046</v>
       </c>
-      <c r="F851" s="4">
-        <v>33725</v>
+      <c r="F851" s="4" t="s">
+        <v>1271</v>
       </c>
       <c r="G851" t="s">
         <v>911</v>
@@ -32765,8 +33191,8 @@
       <c r="E852" t="s">
         <v>1047</v>
       </c>
-      <c r="F852" s="4">
-        <v>41944</v>
+      <c r="F852" s="4" t="s">
+        <v>1244</v>
       </c>
       <c r="G852" t="s">
         <v>913</v>
@@ -32808,8 +33234,8 @@
       <c r="E853" t="s">
         <v>1047</v>
       </c>
-      <c r="F853" s="4">
-        <v>41944</v>
+      <c r="F853" s="4" t="s">
+        <v>1244</v>
       </c>
       <c r="G853" t="s">
         <v>913</v>
@@ -32851,8 +33277,8 @@
       <c r="E854" t="s">
         <v>1048</v>
       </c>
-      <c r="F854" s="4">
-        <v>45108</v>
+      <c r="F854" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G854" t="s">
         <v>913</v>
@@ -32891,8 +33317,8 @@
       <c r="E855" t="s">
         <v>1049</v>
       </c>
-      <c r="F855" s="4">
-        <v>44958</v>
+      <c r="F855" s="4" t="s">
+        <v>1260</v>
       </c>
       <c r="G855" t="s">
         <v>911</v>
@@ -32934,8 +33360,8 @@
       <c r="E856" t="s">
         <v>1050</v>
       </c>
-      <c r="F856" s="4">
-        <v>43983</v>
+      <c r="F856" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="G856" t="s">
         <v>912</v>
@@ -32974,8 +33400,8 @@
       <c r="E857" t="s">
         <v>1051</v>
       </c>
-      <c r="F857" s="4">
-        <v>43556</v>
+      <c r="F857" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G857" t="s">
         <v>911</v>
@@ -33014,8 +33440,8 @@
       <c r="E858" t="s">
         <v>938</v>
       </c>
-      <c r="F858" s="4">
-        <v>35704</v>
+      <c r="F858" s="4" t="s">
+        <v>1209</v>
       </c>
       <c r="G858" t="s">
         <v>912</v>
@@ -33054,8 +33480,8 @@
       <c r="E859" t="s">
         <v>938</v>
       </c>
-      <c r="F859" s="4">
-        <v>35704</v>
+      <c r="F859" s="4" t="s">
+        <v>1209</v>
       </c>
       <c r="G859" t="s">
         <v>912</v>
@@ -33094,8 +33520,8 @@
       <c r="E860" t="s">
         <v>938</v>
       </c>
-      <c r="F860" s="4">
-        <v>35704</v>
+      <c r="F860" s="4" t="s">
+        <v>1209</v>
       </c>
       <c r="G860" t="s">
         <v>912</v>
@@ -33137,8 +33563,8 @@
       <c r="E861" t="s">
         <v>1052</v>
       </c>
-      <c r="F861" s="4">
-        <v>43922</v>
+      <c r="F861" s="4" t="s">
+        <v>1225</v>
       </c>
       <c r="G861" t="s">
         <v>911</v>
@@ -33180,8 +33606,8 @@
       <c r="E862" t="s">
         <v>1053</v>
       </c>
-      <c r="F862" s="4">
-        <v>43556</v>
+      <c r="F862" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G862" t="s">
         <v>911</v>
@@ -33223,8 +33649,8 @@
       <c r="E863" t="s">
         <v>935</v>
       </c>
-      <c r="F863" s="4">
-        <v>43678</v>
+      <c r="F863" s="4" t="s">
+        <v>1207</v>
       </c>
       <c r="G863" t="s">
         <v>912</v>
@@ -33306,8 +33732,8 @@
       <c r="E865" t="s">
         <v>1046</v>
       </c>
-      <c r="F865" s="4">
-        <v>33725</v>
+      <c r="F865" s="4" t="s">
+        <v>1271</v>
       </c>
       <c r="G865" t="s">
         <v>911</v>
@@ -33349,8 +33775,8 @@
       <c r="E866" t="s">
         <v>1046</v>
       </c>
-      <c r="F866" s="4">
-        <v>33725</v>
+      <c r="F866" s="4" t="s">
+        <v>1271</v>
       </c>
       <c r="G866" t="s">
         <v>911</v>
@@ -33392,8 +33818,8 @@
       <c r="E867" t="s">
         <v>1046</v>
       </c>
-      <c r="F867" s="4">
-        <v>33725</v>
+      <c r="F867" s="4" t="s">
+        <v>1271</v>
       </c>
       <c r="G867" t="s">
         <v>911</v>
@@ -33435,8 +33861,8 @@
       <c r="E868" t="s">
         <v>1046</v>
       </c>
-      <c r="F868" s="4">
-        <v>33725</v>
+      <c r="F868" s="4" t="s">
+        <v>1271</v>
       </c>
       <c r="G868" t="s">
         <v>911</v>
@@ -33478,8 +33904,8 @@
       <c r="E869" t="s">
         <v>1055</v>
       </c>
-      <c r="F869" s="4">
-        <v>45078</v>
+      <c r="F869" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G869" t="s">
         <v>912</v>
@@ -33521,8 +33947,8 @@
       <c r="E870" t="s">
         <v>1056</v>
       </c>
-      <c r="F870" s="4">
-        <v>42401</v>
+      <c r="F870" s="4" t="s">
+        <v>1272</v>
       </c>
       <c r="G870" t="s">
         <v>911</v>
@@ -33564,8 +33990,8 @@
       <c r="E871" t="s">
         <v>1057</v>
       </c>
-      <c r="F871" s="4">
-        <v>34578</v>
+      <c r="F871" s="4" t="s">
+        <v>1273</v>
       </c>
       <c r="G871" t="s">
         <v>912</v>
@@ -33607,8 +34033,8 @@
       <c r="E872" t="s">
         <v>1058</v>
       </c>
-      <c r="F872" s="4">
-        <v>42064</v>
+      <c r="F872" s="4" t="s">
+        <v>1274</v>
       </c>
       <c r="G872" t="s">
         <v>911</v>
@@ -33650,8 +34076,8 @@
       <c r="E873" t="s">
         <v>1059</v>
       </c>
-      <c r="F873" s="4">
-        <v>44986</v>
+      <c r="F873" s="4" t="s">
+        <v>1245</v>
       </c>
       <c r="G873" t="s">
         <v>911</v>
@@ -33693,8 +34119,8 @@
       <c r="E874" t="s">
         <v>1059</v>
       </c>
-      <c r="F874" s="4">
-        <v>44986</v>
+      <c r="F874" s="4" t="s">
+        <v>1245</v>
       </c>
       <c r="G874" t="s">
         <v>911</v>
@@ -33736,8 +34162,8 @@
       <c r="E875" t="s">
         <v>928</v>
       </c>
-      <c r="F875" s="4">
-        <v>33939</v>
+      <c r="F875" s="4" t="s">
+        <v>1201</v>
       </c>
       <c r="G875" t="s">
         <v>913</v>
@@ -33779,8 +34205,8 @@
       <c r="E876" t="s">
         <v>1060</v>
       </c>
-      <c r="F876" s="4">
-        <v>45231</v>
+      <c r="F876" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G876" t="s">
         <v>911</v>
@@ -33822,8 +34248,8 @@
       <c r="E877" t="s">
         <v>960</v>
       </c>
-      <c r="F877" s="4">
-        <v>45078</v>
+      <c r="F877" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G877" t="s">
         <v>912</v>
@@ -33865,8 +34291,8 @@
       <c r="E878" t="s">
         <v>1061</v>
       </c>
-      <c r="F878" s="4">
-        <v>43891</v>
+      <c r="F878" s="4" t="s">
+        <v>1275</v>
       </c>
       <c r="G878" t="s">
         <v>911</v>
@@ -33908,8 +34334,8 @@
       <c r="E879" t="s">
         <v>1062</v>
       </c>
-      <c r="F879" s="4">
-        <v>36281</v>
+      <c r="F879" s="4" t="s">
+        <v>1276</v>
       </c>
       <c r="G879" t="s">
         <v>911</v>
@@ -33951,8 +34377,8 @@
       <c r="E880" t="s">
         <v>1062</v>
       </c>
-      <c r="F880" s="4">
-        <v>36281</v>
+      <c r="F880" s="4" t="s">
+        <v>1276</v>
       </c>
       <c r="G880" t="s">
         <v>911</v>
@@ -33994,8 +34420,8 @@
       <c r="E881" t="s">
         <v>1062</v>
       </c>
-      <c r="F881" s="4">
-        <v>36281</v>
+      <c r="F881" s="4" t="s">
+        <v>1276</v>
       </c>
       <c r="G881" t="s">
         <v>911</v>
@@ -34037,8 +34463,8 @@
       <c r="E882" t="s">
         <v>918</v>
       </c>
-      <c r="F882" s="4">
-        <v>43160</v>
+      <c r="F882" s="4" t="s">
+        <v>1191</v>
       </c>
       <c r="G882" t="s">
         <v>911</v>
@@ -34080,8 +34506,8 @@
       <c r="E883" t="s">
         <v>1063</v>
       </c>
-      <c r="F883" s="4">
-        <v>33573</v>
+      <c r="F883" s="4" t="s">
+        <v>1277</v>
       </c>
       <c r="G883" t="s">
         <v>913</v>
@@ -34120,8 +34546,8 @@
       <c r="E884" t="s">
         <v>961</v>
       </c>
-      <c r="F884" s="4">
-        <v>35309</v>
+      <c r="F884" s="4" t="s">
+        <v>1229</v>
       </c>
       <c r="G884" t="s">
         <v>912</v>
@@ -34163,8 +34589,8 @@
       <c r="E885" t="s">
         <v>1064</v>
       </c>
-      <c r="F885" s="4">
-        <v>44013</v>
+      <c r="F885" s="4" t="s">
+        <v>1204</v>
       </c>
       <c r="G885" t="s">
         <v>912</v>
@@ -34206,8 +34632,8 @@
       <c r="E886" t="s">
         <v>961</v>
       </c>
-      <c r="F886" s="4">
-        <v>35309</v>
+      <c r="F886" s="4" t="s">
+        <v>1229</v>
       </c>
       <c r="G886" t="s">
         <v>912</v>
@@ -34249,8 +34675,8 @@
       <c r="E887" t="s">
         <v>961</v>
       </c>
-      <c r="F887" s="4">
-        <v>35309</v>
+      <c r="F887" s="4" t="s">
+        <v>1229</v>
       </c>
       <c r="G887" t="s">
         <v>912</v>
@@ -34289,8 +34715,8 @@
       <c r="E888" t="s">
         <v>1040</v>
       </c>
-      <c r="F888" s="4">
-        <v>45231</v>
+      <c r="F888" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G888" t="s">
         <v>912</v>
@@ -34329,8 +34755,8 @@
       <c r="E889" t="s">
         <v>1065</v>
       </c>
-      <c r="F889" s="4">
-        <v>41334</v>
+      <c r="F889" s="4" t="s">
+        <v>1278</v>
       </c>
       <c r="G889" t="s">
         <v>911</v>
@@ -34372,8 +34798,8 @@
       <c r="E890" t="s">
         <v>1044</v>
       </c>
-      <c r="F890" s="4">
-        <v>43556</v>
+      <c r="F890" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G890" t="s">
         <v>911</v>
@@ -34415,8 +34841,8 @@
       <c r="E891" t="s">
         <v>935</v>
       </c>
-      <c r="F891" s="4">
-        <v>43678</v>
+      <c r="F891" s="4" t="s">
+        <v>1207</v>
       </c>
       <c r="G891" t="s">
         <v>912</v>
@@ -34458,8 +34884,8 @@
       <c r="E892" t="s">
         <v>1066</v>
       </c>
-      <c r="F892" s="4">
-        <v>43313</v>
+      <c r="F892" s="4" t="s">
+        <v>1279</v>
       </c>
       <c r="G892" t="s">
         <v>912</v>
@@ -34501,8 +34927,8 @@
       <c r="E893" t="s">
         <v>1066</v>
       </c>
-      <c r="F893" s="4">
-        <v>43313</v>
+      <c r="F893" s="4" t="s">
+        <v>1279</v>
       </c>
       <c r="G893" t="s">
         <v>912</v>
@@ -34544,8 +34970,8 @@
       <c r="E894" t="s">
         <v>1066</v>
       </c>
-      <c r="F894" s="4">
-        <v>43313</v>
+      <c r="F894" s="4" t="s">
+        <v>1279</v>
       </c>
       <c r="G894" t="s">
         <v>912</v>
@@ -34587,8 +35013,8 @@
       <c r="E895" t="s">
         <v>1067</v>
       </c>
-      <c r="F895" s="4">
-        <v>32295</v>
+      <c r="F895" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="G895" t="s">
         <v>912</v>
@@ -34630,8 +35056,8 @@
       <c r="E896" t="s">
         <v>1025</v>
       </c>
-      <c r="F896" s="4">
-        <v>30773</v>
+      <c r="F896" s="4" t="s">
+        <v>1267</v>
       </c>
       <c r="G896" t="s">
         <v>911</v>
@@ -34673,8 +35099,8 @@
       <c r="E897" t="s">
         <v>1068</v>
       </c>
-      <c r="F897" s="4">
-        <v>42491</v>
+      <c r="F897" s="4" t="s">
+        <v>1280</v>
       </c>
       <c r="G897" t="s">
         <v>911</v>
@@ -34716,8 +35142,8 @@
       <c r="E898" t="s">
         <v>991</v>
       </c>
-      <c r="F898" s="4">
-        <v>44197</v>
+      <c r="F898" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="G898" t="s">
         <v>911</v>
@@ -34759,8 +35185,8 @@
       <c r="E899" t="s">
         <v>1037</v>
       </c>
-      <c r="F899" s="4">
-        <v>45047</v>
+      <c r="F899" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G899" t="s">
         <v>911</v>
@@ -34802,8 +35228,8 @@
       <c r="E900" t="s">
         <v>1037</v>
       </c>
-      <c r="F900" s="4">
-        <v>45047</v>
+      <c r="F900" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G900" t="s">
         <v>911</v>
@@ -34845,8 +35271,8 @@
       <c r="E901" t="s">
         <v>1037</v>
       </c>
-      <c r="F901" s="4">
-        <v>45047</v>
+      <c r="F901" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G901" t="s">
         <v>911</v>
@@ -34888,8 +35314,8 @@
       <c r="E902" t="s">
         <v>1037</v>
       </c>
-      <c r="F902" s="4">
-        <v>45047</v>
+      <c r="F902" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G902" t="s">
         <v>911</v>
@@ -34928,8 +35354,8 @@
       <c r="E903" t="s">
         <v>1049</v>
       </c>
-      <c r="F903" s="4">
-        <v>44958</v>
+      <c r="F903" s="4" t="s">
+        <v>1260</v>
       </c>
       <c r="G903" t="s">
         <v>911</v>
@@ -34971,8 +35397,8 @@
       <c r="E904" t="s">
         <v>1069</v>
       </c>
-      <c r="F904" s="4">
-        <v>45170</v>
+      <c r="F904" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G904" t="s">
         <v>911</v>
@@ -35014,8 +35440,8 @@
       <c r="E905" t="s">
         <v>1070</v>
       </c>
-      <c r="F905" s="4">
-        <v>42887</v>
+      <c r="F905" s="4" t="s">
+        <v>1281</v>
       </c>
       <c r="G905" t="s">
         <v>912</v>
@@ -35054,8 +35480,8 @@
       <c r="E906" t="s">
         <v>991</v>
       </c>
-      <c r="F906" s="4">
-        <v>44197</v>
+      <c r="F906" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="G906" t="s">
         <v>911</v>
@@ -35097,8 +35523,8 @@
       <c r="E907" t="s">
         <v>1047</v>
       </c>
-      <c r="F907" s="4">
-        <v>41944</v>
+      <c r="F907" s="4" t="s">
+        <v>1244</v>
       </c>
       <c r="G907" t="s">
         <v>913</v>
@@ -35140,8 +35566,8 @@
       <c r="E908" t="s">
         <v>1047</v>
       </c>
-      <c r="F908" s="4">
-        <v>41944</v>
+      <c r="F908" s="4" t="s">
+        <v>1244</v>
       </c>
       <c r="G908" t="s">
         <v>913</v>
@@ -35180,8 +35606,8 @@
       <c r="E909" t="s">
         <v>1071</v>
       </c>
-      <c r="F909" s="4">
-        <v>45047</v>
+      <c r="F909" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G909" t="s">
         <v>912</v>
@@ -35220,8 +35646,8 @@
       <c r="E910" t="s">
         <v>1022</v>
       </c>
-      <c r="F910" s="4">
-        <v>33147</v>
+      <c r="F910" s="4" t="s">
+        <v>1265</v>
       </c>
       <c r="G910" t="s">
         <v>912</v>
@@ -35263,8 +35689,8 @@
       <c r="E911" t="s">
         <v>1072</v>
       </c>
-      <c r="F911" s="4">
-        <v>44958</v>
+      <c r="F911" s="4" t="s">
+        <v>1260</v>
       </c>
       <c r="G911" t="s">
         <v>912</v>
@@ -35303,8 +35729,8 @@
       <c r="E912" t="s">
         <v>1073</v>
       </c>
-      <c r="F912" s="4">
-        <v>44228</v>
+      <c r="F912" s="4" t="s">
+        <v>1282</v>
       </c>
       <c r="G912" t="s">
         <v>911</v>
@@ -35343,8 +35769,8 @@
       <c r="E913" t="s">
         <v>1074</v>
       </c>
-      <c r="F913" s="4">
-        <v>45231</v>
+      <c r="F913" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G913" t="s">
         <v>912</v>
@@ -35383,8 +35809,8 @@
       <c r="E914" t="s">
         <v>1074</v>
       </c>
-      <c r="F914" s="4">
-        <v>45231</v>
+      <c r="F914" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G914" t="s">
         <v>912</v>
@@ -35426,8 +35852,8 @@
       <c r="E915" t="s">
         <v>1050</v>
       </c>
-      <c r="F915" s="4">
-        <v>43983</v>
+      <c r="F915" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="G915" t="s">
         <v>912</v>
@@ -35466,8 +35892,8 @@
       <c r="E916" t="s">
         <v>1075</v>
       </c>
-      <c r="F916" s="4">
-        <v>43132</v>
+      <c r="F916" s="4" t="s">
+        <v>1215</v>
       </c>
       <c r="G916" t="s">
         <v>911</v>
@@ -35509,8 +35935,8 @@
       <c r="E917" t="s">
         <v>1076</v>
       </c>
-      <c r="F917" s="4">
-        <v>42278</v>
+      <c r="F917" s="4" t="s">
+        <v>1283</v>
       </c>
       <c r="G917" t="s">
         <v>912</v>
@@ -35549,8 +35975,8 @@
       <c r="E918" t="s">
         <v>974</v>
       </c>
-      <c r="F918" s="4">
-        <v>44197</v>
+      <c r="F918" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="G918" t="s">
         <v>911</v>
@@ -35589,8 +36015,8 @@
       <c r="E919" t="s">
         <v>1077</v>
       </c>
-      <c r="F919" s="4">
-        <v>43101</v>
+      <c r="F919" s="4" t="s">
+        <v>1261</v>
       </c>
       <c r="G919" t="s">
         <v>911</v>
@@ -35629,8 +36055,8 @@
       <c r="E920" t="s">
         <v>1077</v>
       </c>
-      <c r="F920" s="4">
-        <v>43101</v>
+      <c r="F920" s="4" t="s">
+        <v>1261</v>
       </c>
       <c r="G920" t="s">
         <v>911</v>
@@ -35669,8 +36095,8 @@
       <c r="E921" t="s">
         <v>1077</v>
       </c>
-      <c r="F921" s="4">
-        <v>43101</v>
+      <c r="F921" s="4" t="s">
+        <v>1261</v>
       </c>
       <c r="G921" t="s">
         <v>911</v>
@@ -35709,8 +36135,8 @@
       <c r="E922" t="s">
         <v>1077</v>
       </c>
-      <c r="F922" s="4">
-        <v>43101</v>
+      <c r="F922" s="4" t="s">
+        <v>1261</v>
       </c>
       <c r="G922" t="s">
         <v>911</v>
@@ -35752,8 +36178,8 @@
       <c r="E923" t="s">
         <v>1078</v>
       </c>
-      <c r="F923" s="4">
-        <v>45078</v>
+      <c r="F923" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G923" t="s">
         <v>912</v>
@@ -35792,8 +36218,8 @@
       <c r="E924" t="s">
         <v>1079</v>
       </c>
-      <c r="F924" s="4">
-        <v>41671</v>
+      <c r="F924" s="4" t="s">
+        <v>1284</v>
       </c>
       <c r="G924" t="s">
         <v>911</v>
@@ -35835,8 +36261,8 @@
       <c r="E925" t="s">
         <v>1080</v>
       </c>
-      <c r="F925" s="4">
-        <v>41275</v>
+      <c r="F925" s="4" t="s">
+        <v>1285</v>
       </c>
       <c r="G925" t="s">
         <v>911</v>
@@ -35878,8 +36304,8 @@
       <c r="E926" t="s">
         <v>1081</v>
       </c>
-      <c r="F926" s="4">
-        <v>42125</v>
+      <c r="F926" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="G926" t="s">
         <v>911</v>
@@ -35918,8 +36344,8 @@
       <c r="E927" t="s">
         <v>1082</v>
       </c>
-      <c r="F927" s="4">
-        <v>44927</v>
+      <c r="F927" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G927" t="s">
         <v>912</v>
@@ -35958,8 +36384,8 @@
       <c r="E928" t="s">
         <v>1082</v>
       </c>
-      <c r="F928" s="4">
-        <v>44927</v>
+      <c r="F928" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G928" t="s">
         <v>912</v>
@@ -36001,8 +36427,8 @@
       <c r="E929" t="s">
         <v>949</v>
       </c>
-      <c r="F929" s="4">
-        <v>42125</v>
+      <c r="F929" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="G929" t="s">
         <v>911</v>
@@ -36041,8 +36467,8 @@
       <c r="E930" t="s">
         <v>930</v>
       </c>
-      <c r="F930" s="4">
-        <v>45047</v>
+      <c r="F930" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G930" t="s">
         <v>911</v>
@@ -36081,8 +36507,8 @@
       <c r="E931" t="s">
         <v>1071</v>
       </c>
-      <c r="F931" s="4">
-        <v>45047</v>
+      <c r="F931" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G931" t="s">
         <v>912</v>
@@ -36124,8 +36550,8 @@
       <c r="E932" t="s">
         <v>1083</v>
       </c>
-      <c r="F932" s="4">
-        <v>32112</v>
+      <c r="F932" s="4" t="s">
+        <v>1286</v>
       </c>
       <c r="G932" t="s">
         <v>913</v>
@@ -36164,8 +36590,8 @@
       <c r="E933" t="s">
         <v>1084</v>
       </c>
-      <c r="F933" s="4">
-        <v>41579</v>
+      <c r="F933" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G933" t="s">
         <v>913</v>
@@ -36204,8 +36630,8 @@
       <c r="E934" t="s">
         <v>1084</v>
       </c>
-      <c r="F934" s="4">
-        <v>41579</v>
+      <c r="F934" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G934" t="s">
         <v>913</v>
@@ -36244,8 +36670,8 @@
       <c r="E935" t="s">
         <v>1084</v>
       </c>
-      <c r="F935" s="4">
-        <v>41579</v>
+      <c r="F935" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G935" t="s">
         <v>913</v>
@@ -36284,8 +36710,8 @@
       <c r="E936" t="s">
         <v>1084</v>
       </c>
-      <c r="F936" s="4">
-        <v>41579</v>
+      <c r="F936" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G936" t="s">
         <v>913</v>
@@ -36324,8 +36750,8 @@
       <c r="E937" t="s">
         <v>1085</v>
       </c>
-      <c r="F937" s="4">
-        <v>30348</v>
+      <c r="F937" s="4" t="s">
+        <v>1287</v>
       </c>
       <c r="G937" t="s">
         <v>911</v>
@@ -36367,8 +36793,8 @@
       <c r="E938" t="s">
         <v>1086</v>
       </c>
-      <c r="F938" s="4">
-        <v>30468</v>
+      <c r="F938" s="4" t="s">
+        <v>1288</v>
       </c>
       <c r="G938" t="s">
         <v>912</v>
@@ -36407,8 +36833,8 @@
       <c r="E939" t="s">
         <v>1087</v>
       </c>
-      <c r="F939" s="4">
-        <v>45078</v>
+      <c r="F939" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G939" t="s">
         <v>912</v>
@@ -36447,8 +36873,8 @@
       <c r="E940" t="s">
         <v>1088</v>
       </c>
-      <c r="F940" s="4">
-        <v>45017</v>
+      <c r="F940" s="4" t="s">
+        <v>1211</v>
       </c>
       <c r="G940" t="s">
         <v>911</v>
@@ -36490,8 +36916,8 @@
       <c r="E941" t="s">
         <v>917</v>
       </c>
-      <c r="F941" s="4">
-        <v>44927</v>
+      <c r="F941" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G941" t="s">
         <v>911</v>
@@ -36533,8 +36959,8 @@
       <c r="E942" t="s">
         <v>917</v>
       </c>
-      <c r="F942" s="4">
-        <v>44927</v>
+      <c r="F942" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G942" t="s">
         <v>911</v>
@@ -36576,8 +37002,8 @@
       <c r="E943" t="s">
         <v>917</v>
       </c>
-      <c r="F943" s="4">
-        <v>44927</v>
+      <c r="F943" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G943" t="s">
         <v>911</v>
@@ -36616,8 +37042,8 @@
       <c r="E944" t="s">
         <v>957</v>
       </c>
-      <c r="F944" s="4">
-        <v>43922</v>
+      <c r="F944" s="4" t="s">
+        <v>1225</v>
       </c>
       <c r="G944" t="s">
         <v>911</v>
@@ -36656,8 +37082,8 @@
       <c r="E945" t="s">
         <v>1048</v>
       </c>
-      <c r="F945" s="4">
-        <v>45108</v>
+      <c r="F945" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G945" t="s">
         <v>913</v>
@@ -36699,8 +37125,8 @@
       <c r="E946" t="s">
         <v>1059</v>
       </c>
-      <c r="F946" s="4">
-        <v>44986</v>
+      <c r="F946" s="4" t="s">
+        <v>1245</v>
       </c>
       <c r="G946" t="s">
         <v>911</v>
@@ -36739,8 +37165,8 @@
       <c r="E947" t="s">
         <v>1089</v>
       </c>
-      <c r="F947" s="4">
-        <v>43647</v>
+      <c r="F947" s="4" t="s">
+        <v>1289</v>
       </c>
       <c r="G947" t="s">
         <v>912</v>
@@ -36782,8 +37208,8 @@
       <c r="E948" t="s">
         <v>1056</v>
       </c>
-      <c r="F948" s="4">
-        <v>42401</v>
+      <c r="F948" s="4" t="s">
+        <v>1272</v>
       </c>
       <c r="G948" t="s">
         <v>911</v>
@@ -36825,8 +37251,8 @@
       <c r="E949" t="s">
         <v>1056</v>
       </c>
-      <c r="F949" s="4">
-        <v>42401</v>
+      <c r="F949" s="4" t="s">
+        <v>1272</v>
       </c>
       <c r="G949" t="s">
         <v>911</v>
@@ -36868,8 +37294,8 @@
       <c r="E950" t="s">
         <v>1056</v>
       </c>
-      <c r="F950" s="4">
-        <v>42401</v>
+      <c r="F950" s="4" t="s">
+        <v>1272</v>
       </c>
       <c r="G950" t="s">
         <v>911</v>
@@ -36908,8 +37334,8 @@
       <c r="E951" t="s">
         <v>1090</v>
       </c>
-      <c r="F951" s="4">
-        <v>45170</v>
+      <c r="F951" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G951" t="s">
         <v>913</v>
@@ -36948,8 +37374,8 @@
       <c r="E952" t="s">
         <v>1091</v>
       </c>
-      <c r="F952" s="4">
-        <v>45170</v>
+      <c r="F952" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G952" t="s">
         <v>912</v>
@@ -36991,8 +37417,8 @@
       <c r="E953" t="s">
         <v>1010</v>
       </c>
-      <c r="F953" s="4">
-        <v>45139</v>
+      <c r="F953" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G953" t="s">
         <v>912</v>
@@ -37031,8 +37457,8 @@
       <c r="E954" t="s">
         <v>1092</v>
       </c>
-      <c r="F954" s="4">
-        <v>33390</v>
+      <c r="F954" s="4" t="s">
+        <v>1290</v>
       </c>
       <c r="G954" t="s">
         <v>912</v>
@@ -37071,8 +37497,8 @@
       <c r="E955" t="s">
         <v>1019</v>
       </c>
-      <c r="F955" s="4">
-        <v>41609</v>
+      <c r="F955" s="4" t="s">
+        <v>1263</v>
       </c>
       <c r="G955" t="s">
         <v>913</v>
@@ -37111,8 +37537,8 @@
       <c r="E956" t="s">
         <v>1019</v>
       </c>
-      <c r="F956" s="4">
-        <v>41609</v>
+      <c r="F956" s="4" t="s">
+        <v>1263</v>
       </c>
       <c r="G956" t="s">
         <v>913</v>
@@ -37154,8 +37580,8 @@
       <c r="E957" t="s">
         <v>1093</v>
       </c>
-      <c r="F957" s="4">
-        <v>41487</v>
+      <c r="F957" s="4" t="s">
+        <v>1291</v>
       </c>
       <c r="G957" t="s">
         <v>912</v>
@@ -37194,8 +37620,8 @@
       <c r="E958" t="s">
         <v>1094</v>
       </c>
-      <c r="F958" s="4">
-        <v>32478</v>
+      <c r="F958" s="4" t="s">
+        <v>1292</v>
       </c>
       <c r="G958" t="s">
         <v>913</v>
@@ -37234,8 +37660,8 @@
       <c r="E959" t="s">
         <v>1030</v>
       </c>
-      <c r="F959" s="4">
-        <v>45261</v>
+      <c r="F959" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G959" t="s">
         <v>912</v>
@@ -37277,8 +37703,8 @@
       <c r="E960" t="s">
         <v>1067</v>
       </c>
-      <c r="F960" s="4">
-        <v>32295</v>
+      <c r="F960" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="G960" t="s">
         <v>912</v>
@@ -37317,8 +37743,8 @@
       <c r="E961" t="s">
         <v>1095</v>
       </c>
-      <c r="F961" s="4">
-        <v>42278</v>
+      <c r="F961" s="4" t="s">
+        <v>1283</v>
       </c>
       <c r="G961" t="s">
         <v>912</v>
@@ -37357,8 +37783,8 @@
       <c r="E962" t="s">
         <v>1095</v>
       </c>
-      <c r="F962" s="4">
-        <v>42278</v>
+      <c r="F962" s="4" t="s">
+        <v>1283</v>
       </c>
       <c r="G962" t="s">
         <v>912</v>
@@ -37397,8 +37823,8 @@
       <c r="E963" t="s">
         <v>1095</v>
       </c>
-      <c r="F963" s="4">
-        <v>42278</v>
+      <c r="F963" s="4" t="s">
+        <v>1283</v>
       </c>
       <c r="G963" t="s">
         <v>912</v>
@@ -37437,8 +37863,8 @@
       <c r="E964" t="s">
         <v>1096</v>
       </c>
-      <c r="F964" s="4">
-        <v>41548</v>
+      <c r="F964" s="4" t="s">
+        <v>1293</v>
       </c>
       <c r="G964" t="s">
         <v>912</v>
@@ -37480,8 +37906,8 @@
       <c r="E965" t="s">
         <v>1041</v>
       </c>
-      <c r="F965" s="4">
-        <v>34121</v>
+      <c r="F965" s="4" t="s">
+        <v>1270</v>
       </c>
       <c r="G965" t="s">
         <v>912</v>
@@ -37520,8 +37946,8 @@
       <c r="E966" t="s">
         <v>1097</v>
       </c>
-      <c r="F966" s="4">
-        <v>43800</v>
+      <c r="F966" s="4" t="s">
+        <v>1294</v>
       </c>
       <c r="G966" t="s">
         <v>913</v>
@@ -37560,8 +37986,8 @@
       <c r="E967" t="s">
         <v>1098</v>
       </c>
-      <c r="F967" s="4">
-        <v>36161</v>
+      <c r="F967" s="4" t="s">
+        <v>1295</v>
       </c>
       <c r="G967" t="s">
         <v>911</v>
@@ -37603,8 +38029,8 @@
       <c r="E968" t="s">
         <v>1099</v>
       </c>
-      <c r="F968" s="4">
-        <v>41426</v>
+      <c r="F968" s="4" t="s">
+        <v>1296</v>
       </c>
       <c r="G968" t="s">
         <v>912</v>
@@ -37646,8 +38072,8 @@
       <c r="E969" t="s">
         <v>1099</v>
       </c>
-      <c r="F969" s="4">
-        <v>41426</v>
+      <c r="F969" s="4" t="s">
+        <v>1296</v>
       </c>
       <c r="G969" t="s">
         <v>912</v>
@@ -37689,8 +38115,8 @@
       <c r="E970" t="s">
         <v>1099</v>
       </c>
-      <c r="F970" s="4">
-        <v>41426</v>
+      <c r="F970" s="4" t="s">
+        <v>1296</v>
       </c>
       <c r="G970" t="s">
         <v>912</v>
@@ -37732,8 +38158,8 @@
       <c r="E971" t="s">
         <v>1099</v>
       </c>
-      <c r="F971" s="4">
-        <v>41426</v>
+      <c r="F971" s="4" t="s">
+        <v>1296</v>
       </c>
       <c r="G971" t="s">
         <v>912</v>
@@ -37772,8 +38198,8 @@
       <c r="E972" t="s">
         <v>1050</v>
       </c>
-      <c r="F972" s="4">
-        <v>43983</v>
+      <c r="F972" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="G972" t="s">
         <v>912</v>
@@ -37812,8 +38238,8 @@
       <c r="E973" t="s">
         <v>939</v>
       </c>
-      <c r="F973" s="4">
-        <v>41760</v>
+      <c r="F973" s="4" t="s">
+        <v>1210</v>
       </c>
       <c r="G973" t="s">
         <v>911</v>
@@ -37855,8 +38281,8 @@
       <c r="E974" t="s">
         <v>1100</v>
       </c>
-      <c r="F974" s="4">
-        <v>43678</v>
+      <c r="F974" s="4" t="s">
+        <v>1207</v>
       </c>
       <c r="G974" t="s">
         <v>912</v>
@@ -37895,8 +38321,8 @@
       <c r="E975" t="s">
         <v>1019</v>
       </c>
-      <c r="F975" s="4">
-        <v>41609</v>
+      <c r="F975" s="4" t="s">
+        <v>1263</v>
       </c>
       <c r="G975" t="s">
         <v>913</v>
@@ -37935,8 +38361,8 @@
       <c r="E976" t="s">
         <v>1101</v>
       </c>
-      <c r="F976" s="4">
-        <v>45078</v>
+      <c r="F976" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G976" t="s">
         <v>912</v>
@@ -37975,8 +38401,8 @@
       <c r="E977" t="s">
         <v>1101</v>
       </c>
-      <c r="F977" s="4">
-        <v>45078</v>
+      <c r="F977" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G977" t="s">
         <v>912</v>
@@ -38015,8 +38441,8 @@
       <c r="E978" t="s">
         <v>1101</v>
       </c>
-      <c r="F978" s="4">
-        <v>45078</v>
+      <c r="F978" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G978" t="s">
         <v>912</v>
@@ -38058,8 +38484,8 @@
       <c r="E979" t="s">
         <v>980</v>
       </c>
-      <c r="F979" s="4">
-        <v>44075</v>
+      <c r="F979" s="4" t="s">
+        <v>1234</v>
       </c>
       <c r="G979" t="s">
         <v>912</v>
@@ -38098,8 +38524,8 @@
       <c r="E980" t="s">
         <v>1102</v>
       </c>
-      <c r="F980" s="4">
-        <v>45231</v>
+      <c r="F980" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G980" t="s">
         <v>911</v>
@@ -38138,8 +38564,8 @@
       <c r="E981" t="s">
         <v>1103</v>
       </c>
-      <c r="F981" s="4">
-        <v>42795</v>
+      <c r="F981" s="4" t="s">
+        <v>1297</v>
       </c>
       <c r="G981" t="s">
         <v>911</v>
@@ -38181,8 +38607,8 @@
       <c r="E982" t="s">
         <v>1104</v>
       </c>
-      <c r="F982" s="4">
-        <v>45078</v>
+      <c r="F982" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G982" t="s">
         <v>912</v>
@@ -38221,8 +38647,8 @@
       <c r="E983" t="s">
         <v>1036</v>
       </c>
-      <c r="F983" s="4">
-        <v>43556</v>
+      <c r="F983" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G983" t="s">
         <v>911</v>
@@ -38261,8 +38687,8 @@
       <c r="E984" t="s">
         <v>1036</v>
       </c>
-      <c r="F984" s="4">
-        <v>43556</v>
+      <c r="F984" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G984" t="s">
         <v>911</v>
@@ -38301,8 +38727,8 @@
       <c r="E985" t="s">
         <v>1036</v>
       </c>
-      <c r="F985" s="4">
-        <v>43556</v>
+      <c r="F985" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G985" t="s">
         <v>911</v>
@@ -38344,8 +38770,8 @@
       <c r="E986" t="s">
         <v>1105</v>
       </c>
-      <c r="F986" s="4">
-        <v>42064</v>
+      <c r="F986" s="4" t="s">
+        <v>1274</v>
       </c>
       <c r="G986" t="s">
         <v>911</v>
@@ -38384,8 +38810,8 @@
       <c r="E987" t="s">
         <v>1088</v>
       </c>
-      <c r="F987" s="4">
-        <v>45017</v>
+      <c r="F987" s="4" t="s">
+        <v>1211</v>
       </c>
       <c r="G987" t="s">
         <v>911</v>
@@ -38427,8 +38853,8 @@
       <c r="E988" t="s">
         <v>958</v>
       </c>
-      <c r="F988" s="4">
-        <v>32295</v>
+      <c r="F988" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="G988" t="s">
         <v>912</v>
@@ -38467,8 +38893,8 @@
       <c r="E989" t="s">
         <v>1106</v>
       </c>
-      <c r="F989" s="4">
-        <v>45261</v>
+      <c r="F989" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G989" t="s">
         <v>911</v>
@@ -38507,8 +38933,8 @@
       <c r="E990" t="s">
         <v>1107</v>
       </c>
-      <c r="F990" s="4">
-        <v>29007</v>
+      <c r="F990" s="4" t="s">
+        <v>1298</v>
       </c>
       <c r="G990" t="s">
         <v>912</v>
@@ -38547,8 +38973,8 @@
       <c r="E991" t="s">
         <v>1107</v>
       </c>
-      <c r="F991" s="4">
-        <v>29007</v>
+      <c r="F991" s="4" t="s">
+        <v>1298</v>
       </c>
       <c r="G991" t="s">
         <v>912</v>
@@ -38590,8 +39016,8 @@
       <c r="E992" t="s">
         <v>1108</v>
       </c>
-      <c r="F992" s="4">
-        <v>41579</v>
+      <c r="F992" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G992" t="s">
         <v>913</v>
@@ -38630,8 +39056,8 @@
       <c r="E993" t="s">
         <v>1109</v>
       </c>
-      <c r="F993" s="4">
-        <v>42675</v>
+      <c r="F993" s="4" t="s">
+        <v>1299</v>
       </c>
       <c r="G993" t="s">
         <v>913</v>
@@ -38670,8 +39096,8 @@
       <c r="E994" t="s">
         <v>1056</v>
       </c>
-      <c r="F994" s="4">
-        <v>42401</v>
+      <c r="F994" s="4" t="s">
+        <v>1272</v>
       </c>
       <c r="G994" t="s">
         <v>911</v>
@@ -38713,8 +39139,8 @@
       <c r="E995" t="s">
         <v>921</v>
       </c>
-      <c r="F995" s="4">
-        <v>36312</v>
+      <c r="F995" s="4" t="s">
+        <v>1194</v>
       </c>
       <c r="G995" t="s">
         <v>912</v>
@@ -38753,8 +39179,8 @@
       <c r="E996" t="s">
         <v>1110</v>
       </c>
-      <c r="F996" s="4">
-        <v>42156</v>
+      <c r="F996" s="4" t="s">
+        <v>1300</v>
       </c>
       <c r="G996" t="s">
         <v>912</v>
@@ -38793,8 +39219,8 @@
       <c r="E997" t="s">
         <v>1110</v>
       </c>
-      <c r="F997" s="4">
-        <v>42156</v>
+      <c r="F997" s="4" t="s">
+        <v>1300</v>
       </c>
       <c r="G997" t="s">
         <v>912</v>
@@ -38836,8 +39262,8 @@
       <c r="E998" t="s">
         <v>1091</v>
       </c>
-      <c r="F998" s="4">
-        <v>45170</v>
+      <c r="F998" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G998" t="s">
         <v>912</v>
@@ -38876,8 +39302,8 @@
       <c r="E999" t="s">
         <v>1111</v>
       </c>
-      <c r="F999" s="4">
-        <v>42917</v>
+      <c r="F999" s="4" t="s">
+        <v>1301</v>
       </c>
       <c r="G999" t="s">
         <v>912</v>
@@ -38916,8 +39342,8 @@
       <c r="E1000" t="s">
         <v>1112</v>
       </c>
-      <c r="F1000" s="4">
-        <v>43739</v>
+      <c r="F1000" s="4" t="s">
+        <v>1302</v>
       </c>
       <c r="G1000" t="s">
         <v>912</v>
@@ -38959,8 +39385,8 @@
       <c r="E1001" t="s">
         <v>987</v>
       </c>
-      <c r="F1001" s="4">
-        <v>44105</v>
+      <c r="F1001" s="4" t="s">
+        <v>1199</v>
       </c>
       <c r="G1001" t="s">
         <v>912</v>
@@ -38999,8 +39425,8 @@
       <c r="E1002" t="s">
         <v>966</v>
       </c>
-      <c r="F1002" s="4">
-        <v>28703</v>
+      <c r="F1002" s="4" t="s">
+        <v>1233</v>
       </c>
       <c r="G1002" t="s">
         <v>912</v>
@@ -39039,8 +39465,8 @@
       <c r="E1003" t="s">
         <v>966</v>
       </c>
-      <c r="F1003" s="4">
-        <v>28703</v>
+      <c r="F1003" s="4" t="s">
+        <v>1233</v>
       </c>
       <c r="G1003" t="s">
         <v>912</v>
@@ -39079,8 +39505,8 @@
       <c r="E1004" t="s">
         <v>966</v>
       </c>
-      <c r="F1004" s="4">
-        <v>28703</v>
+      <c r="F1004" s="4" t="s">
+        <v>1233</v>
       </c>
       <c r="G1004" t="s">
         <v>912</v>
@@ -39119,8 +39545,8 @@
       <c r="E1005" t="s">
         <v>966</v>
       </c>
-      <c r="F1005" s="4">
-        <v>28703</v>
+      <c r="F1005" s="4" t="s">
+        <v>1233</v>
       </c>
       <c r="G1005" t="s">
         <v>912</v>
@@ -39159,8 +39585,8 @@
       <c r="E1006" t="s">
         <v>966</v>
       </c>
-      <c r="F1006" s="4">
-        <v>28703</v>
+      <c r="F1006" s="4" t="s">
+        <v>1233</v>
       </c>
       <c r="G1006" t="s">
         <v>912</v>
@@ -39199,8 +39625,8 @@
       <c r="E1007" t="s">
         <v>966</v>
       </c>
-      <c r="F1007" s="4">
-        <v>28703</v>
+      <c r="F1007" s="4" t="s">
+        <v>1233</v>
       </c>
       <c r="G1007" t="s">
         <v>912</v>
@@ -39239,8 +39665,8 @@
       <c r="E1008" t="s">
         <v>966</v>
       </c>
-      <c r="F1008" s="4">
-        <v>28703</v>
+      <c r="F1008" s="4" t="s">
+        <v>1233</v>
       </c>
       <c r="G1008" t="s">
         <v>912</v>
@@ -39282,8 +39708,8 @@
       <c r="E1009" t="s">
         <v>1113</v>
       </c>
-      <c r="F1009" s="4">
-        <v>41730</v>
+      <c r="F1009" s="4" t="s">
+        <v>1303</v>
       </c>
       <c r="G1009" t="s">
         <v>911</v>
@@ -39325,8 +39751,8 @@
       <c r="E1010" t="s">
         <v>1097</v>
       </c>
-      <c r="F1010" s="4">
-        <v>43800</v>
+      <c r="F1010" s="4" t="s">
+        <v>1294</v>
       </c>
       <c r="G1010" t="s">
         <v>913</v>
@@ -39368,8 +39794,8 @@
       <c r="E1011" t="s">
         <v>1039</v>
       </c>
-      <c r="F1011" s="4">
-        <v>43678</v>
+      <c r="F1011" s="4" t="s">
+        <v>1207</v>
       </c>
       <c r="G1011" t="s">
         <v>912</v>
@@ -39408,8 +39834,8 @@
       <c r="E1012" t="s">
         <v>1114</v>
       </c>
-      <c r="F1012" s="4">
-        <v>42675</v>
+      <c r="F1012" s="4" t="s">
+        <v>1299</v>
       </c>
       <c r="G1012" t="s">
         <v>913</v>
@@ -39451,8 +39877,8 @@
       <c r="E1013" t="s">
         <v>1115</v>
       </c>
-      <c r="F1013" s="4">
-        <v>45108</v>
+      <c r="F1013" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G1013" t="s">
         <v>911</v>
@@ -39494,8 +39920,8 @@
       <c r="E1014" t="s">
         <v>1115</v>
       </c>
-      <c r="F1014" s="4">
-        <v>45108</v>
+      <c r="F1014" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G1014" t="s">
         <v>911</v>
@@ -39534,8 +39960,8 @@
       <c r="E1015" t="s">
         <v>1083</v>
       </c>
-      <c r="F1015" s="4">
-        <v>32112</v>
+      <c r="F1015" s="4" t="s">
+        <v>1286</v>
       </c>
       <c r="G1015" t="s">
         <v>913</v>
@@ -39577,8 +40003,8 @@
       <c r="E1016" t="s">
         <v>1116</v>
       </c>
-      <c r="F1016" s="4">
-        <v>45139</v>
+      <c r="F1016" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G1016" t="s">
         <v>912</v>
@@ -39617,8 +40043,8 @@
       <c r="E1017" t="s">
         <v>1026</v>
       </c>
-      <c r="F1017" s="4">
-        <v>45261</v>
+      <c r="F1017" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G1017" t="s">
         <v>911</v>
@@ -39660,8 +40086,8 @@
       <c r="E1018" t="s">
         <v>1028</v>
       </c>
-      <c r="F1018" s="4">
-        <v>45047</v>
+      <c r="F1018" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G1018" t="s">
         <v>913</v>
@@ -39700,8 +40126,8 @@
       <c r="E1019" t="s">
         <v>1117</v>
       </c>
-      <c r="F1019" s="4">
-        <v>34669</v>
+      <c r="F1019" s="4" t="s">
+        <v>1304</v>
       </c>
       <c r="G1019" t="s">
         <v>913</v>
@@ -39740,8 +40166,8 @@
       <c r="E1020" t="s">
         <v>1117</v>
       </c>
-      <c r="F1020" s="4">
-        <v>34669</v>
+      <c r="F1020" s="4" t="s">
+        <v>1304</v>
       </c>
       <c r="G1020" t="s">
         <v>913</v>
@@ -39783,8 +40209,8 @@
       <c r="E1021" t="s">
         <v>1118</v>
       </c>
-      <c r="F1021" s="4">
-        <v>42005</v>
+      <c r="F1021" s="4" t="s">
+        <v>1305</v>
       </c>
       <c r="G1021" t="s">
         <v>911</v>
@@ -39823,8 +40249,8 @@
       <c r="E1022" t="s">
         <v>1119</v>
       </c>
-      <c r="F1022" s="4">
-        <v>41275</v>
+      <c r="F1022" s="4" t="s">
+        <v>1285</v>
       </c>
       <c r="G1022" t="s">
         <v>911</v>
@@ -39866,8 +40292,8 @@
       <c r="E1023" t="s">
         <v>1120</v>
       </c>
-      <c r="F1023" s="4">
-        <v>36251</v>
+      <c r="F1023" s="4" t="s">
+        <v>1306</v>
       </c>
       <c r="G1023" t="s">
         <v>911</v>
@@ -39906,8 +40332,8 @@
       <c r="E1024" t="s">
         <v>1070</v>
       </c>
-      <c r="F1024" s="4">
-        <v>42887</v>
+      <c r="F1024" s="4" t="s">
+        <v>1281</v>
       </c>
       <c r="G1024" t="s">
         <v>912</v>
@@ -39946,8 +40372,8 @@
       <c r="E1025" t="s">
         <v>1121</v>
       </c>
-      <c r="F1025" s="4">
-        <v>34608</v>
+      <c r="F1025" s="4" t="s">
+        <v>1307</v>
       </c>
       <c r="G1025" t="s">
         <v>912</v>
@@ -39986,8 +40412,8 @@
       <c r="E1026" t="s">
         <v>1121</v>
       </c>
-      <c r="F1026" s="4">
-        <v>34608</v>
+      <c r="F1026" s="4" t="s">
+        <v>1307</v>
       </c>
       <c r="G1026" t="s">
         <v>912</v>
@@ -40026,8 +40452,8 @@
       <c r="E1027" t="s">
         <v>1121</v>
       </c>
-      <c r="F1027" s="4">
-        <v>34608</v>
+      <c r="F1027" s="4" t="s">
+        <v>1307</v>
       </c>
       <c r="G1027" t="s">
         <v>912</v>
@@ -40069,8 +40495,8 @@
       <c r="E1028" t="s">
         <v>980</v>
       </c>
-      <c r="F1028" s="4">
-        <v>44075</v>
+      <c r="F1028" s="4" t="s">
+        <v>1234</v>
       </c>
       <c r="G1028" t="s">
         <v>912</v>
@@ -40109,8 +40535,8 @@
       <c r="E1029" t="s">
         <v>1122</v>
       </c>
-      <c r="F1029" s="4">
-        <v>44958</v>
+      <c r="F1029" s="4" t="s">
+        <v>1260</v>
       </c>
       <c r="G1029" t="s">
         <v>912</v>
@@ -40149,8 +40575,8 @@
       <c r="E1030" t="s">
         <v>1058</v>
       </c>
-      <c r="F1030" s="4">
-        <v>42064</v>
+      <c r="F1030" s="4" t="s">
+        <v>1274</v>
       </c>
       <c r="G1030" t="s">
         <v>911</v>
@@ -40189,8 +40615,8 @@
       <c r="E1031" t="s">
         <v>1011</v>
       </c>
-      <c r="F1031" s="4">
-        <v>43221</v>
+      <c r="F1031" s="4" t="s">
+        <v>1214</v>
       </c>
       <c r="G1031" t="s">
         <v>911</v>
@@ -40232,8 +40658,8 @@
       <c r="E1032" t="s">
         <v>955</v>
       </c>
-      <c r="F1032" s="4">
-        <v>43070</v>
+      <c r="F1032" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="G1032" t="s">
         <v>913</v>
@@ -40275,8 +40701,8 @@
       <c r="E1033" t="s">
         <v>955</v>
       </c>
-      <c r="F1033" s="4">
-        <v>43070</v>
+      <c r="F1033" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="G1033" t="s">
         <v>913</v>
@@ -40318,8 +40744,8 @@
       <c r="E1034" t="s">
         <v>955</v>
       </c>
-      <c r="F1034" s="4">
-        <v>43070</v>
+      <c r="F1034" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="G1034" t="s">
         <v>913</v>
@@ -40358,8 +40784,8 @@
       <c r="E1035" t="s">
         <v>1123</v>
       </c>
-      <c r="F1035" s="4">
-        <v>43221</v>
+      <c r="F1035" s="4" t="s">
+        <v>1214</v>
       </c>
       <c r="G1035" t="s">
         <v>911</v>
@@ -40401,8 +40827,8 @@
       <c r="E1036" t="s">
         <v>1124</v>
       </c>
-      <c r="F1036" s="4">
-        <v>44958</v>
+      <c r="F1036" s="4" t="s">
+        <v>1260</v>
       </c>
       <c r="G1036" t="s">
         <v>913</v>
@@ -40441,8 +40867,8 @@
       <c r="E1037" t="s">
         <v>1125</v>
       </c>
-      <c r="F1037" s="4">
-        <v>43983</v>
+      <c r="F1037" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="G1037" t="s">
         <v>912</v>
@@ -40481,8 +40907,8 @@
       <c r="E1038" t="s">
         <v>1037</v>
       </c>
-      <c r="F1038" s="4">
-        <v>45047</v>
+      <c r="F1038" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G1038" t="s">
         <v>911</v>
@@ -40524,8 +40950,8 @@
       <c r="E1039" t="s">
         <v>1126</v>
       </c>
-      <c r="F1039" s="4">
-        <v>43862</v>
+      <c r="F1039" s="4" t="s">
+        <v>1249</v>
       </c>
       <c r="G1039" t="s">
         <v>911</v>
@@ -40567,8 +40993,8 @@
       <c r="E1040" t="s">
         <v>1126</v>
       </c>
-      <c r="F1040" s="4">
-        <v>43862</v>
+      <c r="F1040" s="4" t="s">
+        <v>1249</v>
       </c>
       <c r="G1040" t="s">
         <v>911</v>
@@ -40610,8 +41036,8 @@
       <c r="E1041" t="s">
         <v>1126</v>
       </c>
-      <c r="F1041" s="4">
-        <v>43862</v>
+      <c r="F1041" s="4" t="s">
+        <v>1249</v>
       </c>
       <c r="G1041" t="s">
         <v>911</v>
@@ -40653,8 +41079,8 @@
       <c r="E1042" t="s">
         <v>1126</v>
       </c>
-      <c r="F1042" s="4">
-        <v>43862</v>
+      <c r="F1042" s="4" t="s">
+        <v>1249</v>
       </c>
       <c r="G1042" t="s">
         <v>911</v>
@@ -40693,8 +41119,8 @@
       <c r="E1043" t="s">
         <v>1127</v>
       </c>
-      <c r="F1043" s="4">
-        <v>42370</v>
+      <c r="F1043" s="4" t="s">
+        <v>1308</v>
       </c>
       <c r="G1043" t="s">
         <v>911</v>
@@ -40733,8 +41159,8 @@
       <c r="E1044" t="s">
         <v>1034</v>
       </c>
-      <c r="F1044" s="4">
-        <v>44958</v>
+      <c r="F1044" s="4" t="s">
+        <v>1260</v>
       </c>
       <c r="G1044" t="s">
         <v>911</v>
@@ -40776,8 +41202,8 @@
       <c r="E1045" t="s">
         <v>1128</v>
       </c>
-      <c r="F1045" s="4">
-        <v>41974</v>
+      <c r="F1045" s="4" t="s">
+        <v>1309</v>
       </c>
       <c r="G1045" t="s">
         <v>913</v>
@@ -40816,8 +41242,8 @@
       <c r="E1046" t="s">
         <v>1129</v>
       </c>
-      <c r="F1046" s="4">
-        <v>43040</v>
+      <c r="F1046" s="4" t="s">
+        <v>1310</v>
       </c>
       <c r="G1046" t="s">
         <v>913</v>
@@ -40856,8 +41282,8 @@
       <c r="E1047" t="s">
         <v>1129</v>
       </c>
-      <c r="F1047" s="4">
-        <v>43040</v>
+      <c r="F1047" s="4" t="s">
+        <v>1310</v>
       </c>
       <c r="G1047" t="s">
         <v>913</v>
@@ -40896,8 +41322,8 @@
       <c r="E1048" t="s">
         <v>1129</v>
       </c>
-      <c r="F1048" s="4">
-        <v>43040</v>
+      <c r="F1048" s="4" t="s">
+        <v>1310</v>
       </c>
       <c r="G1048" t="s">
         <v>913</v>
@@ -40936,8 +41362,8 @@
       <c r="E1049" t="s">
         <v>1129</v>
       </c>
-      <c r="F1049" s="4">
-        <v>43040</v>
+      <c r="F1049" s="4" t="s">
+        <v>1310</v>
       </c>
       <c r="G1049" t="s">
         <v>913</v>
@@ -40976,8 +41402,8 @@
       <c r="E1050" t="s">
         <v>1067</v>
       </c>
-      <c r="F1050" s="4">
-        <v>32295</v>
+      <c r="F1050" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="G1050" t="s">
         <v>912</v>
@@ -41019,8 +41445,8 @@
       <c r="E1051" t="s">
         <v>1130</v>
       </c>
-      <c r="F1051" s="4">
-        <v>36281</v>
+      <c r="F1051" s="4" t="s">
+        <v>1276</v>
       </c>
       <c r="G1051" t="s">
         <v>911</v>
@@ -41059,8 +41485,8 @@
       <c r="E1052" t="s">
         <v>1131</v>
       </c>
-      <c r="F1052" s="4">
-        <v>34943</v>
+      <c r="F1052" s="4" t="s">
+        <v>1311</v>
       </c>
       <c r="G1052" t="s">
         <v>912</v>
@@ -41099,8 +41525,8 @@
       <c r="E1053" t="s">
         <v>1106</v>
       </c>
-      <c r="F1053" s="4">
-        <v>45261</v>
+      <c r="F1053" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G1053" t="s">
         <v>911</v>
@@ -41142,8 +41568,8 @@
       <c r="E1054" t="s">
         <v>1132</v>
       </c>
-      <c r="F1054" s="4">
-        <v>43891</v>
+      <c r="F1054" s="4" t="s">
+        <v>1275</v>
       </c>
       <c r="G1054" t="s">
         <v>911</v>
@@ -41185,8 +41611,8 @@
       <c r="E1055" t="s">
         <v>1132</v>
       </c>
-      <c r="F1055" s="4">
-        <v>43891</v>
+      <c r="F1055" s="4" t="s">
+        <v>1275</v>
       </c>
       <c r="G1055" t="s">
         <v>911</v>
@@ -41225,8 +41651,8 @@
       <c r="E1056" t="s">
         <v>1006</v>
       </c>
-      <c r="F1056" s="4">
-        <v>42552</v>
+      <c r="F1056" s="4" t="s">
+        <v>1256</v>
       </c>
       <c r="G1056" t="s">
         <v>912</v>
@@ -41268,8 +41694,8 @@
       <c r="E1057" t="s">
         <v>1133</v>
       </c>
-      <c r="F1057" s="4">
-        <v>42644</v>
+      <c r="F1057" s="4" t="s">
+        <v>1312</v>
       </c>
       <c r="G1057" t="s">
         <v>912</v>
@@ -41308,8 +41734,8 @@
       <c r="E1058" t="s">
         <v>929</v>
       </c>
-      <c r="F1058" s="4">
-        <v>45047</v>
+      <c r="F1058" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="G1058" t="s">
         <v>912</v>
@@ -41348,8 +41774,8 @@
       <c r="E1059" t="s">
         <v>1134</v>
       </c>
-      <c r="F1059" s="4">
-        <v>41944</v>
+      <c r="F1059" s="4" t="s">
+        <v>1244</v>
       </c>
       <c r="G1059" t="s">
         <v>913</v>
@@ -41391,8 +41817,8 @@
       <c r="E1060" t="s">
         <v>1048</v>
       </c>
-      <c r="F1060" s="4">
-        <v>45108</v>
+      <c r="F1060" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G1060" t="s">
         <v>913</v>
@@ -41434,8 +41860,8 @@
       <c r="E1061" t="s">
         <v>1048</v>
       </c>
-      <c r="F1061" s="4">
-        <v>45108</v>
+      <c r="F1061" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G1061" t="s">
         <v>913</v>
@@ -41477,8 +41903,8 @@
       <c r="E1062" t="s">
         <v>1048</v>
       </c>
-      <c r="F1062" s="4">
-        <v>45108</v>
+      <c r="F1062" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G1062" t="s">
         <v>913</v>
@@ -41517,8 +41943,8 @@
       <c r="E1063" t="s">
         <v>1135</v>
       </c>
-      <c r="F1063" s="4">
-        <v>45139</v>
+      <c r="F1063" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G1063" t="s">
         <v>912</v>
@@ -41557,8 +41983,8 @@
       <c r="E1064" t="s">
         <v>1130</v>
       </c>
-      <c r="F1064" s="4">
-        <v>36281</v>
+      <c r="F1064" s="4" t="s">
+        <v>1276</v>
       </c>
       <c r="G1064" t="s">
         <v>911</v>
@@ -41600,8 +42026,8 @@
       <c r="E1065" t="s">
         <v>1025</v>
       </c>
-      <c r="F1065" s="4">
-        <v>30773</v>
+      <c r="F1065" s="4" t="s">
+        <v>1267</v>
       </c>
       <c r="G1065" t="s">
         <v>911</v>
@@ -41640,8 +42066,8 @@
       <c r="E1066" t="s">
         <v>1136</v>
       </c>
-      <c r="F1066" s="4">
-        <v>44927</v>
+      <c r="F1066" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G1066" t="s">
         <v>912</v>
@@ -41683,8 +42109,8 @@
       <c r="E1067" t="s">
         <v>919</v>
       </c>
-      <c r="F1067" s="4">
-        <v>44044</v>
+      <c r="F1067" s="4" t="s">
+        <v>1192</v>
       </c>
       <c r="G1067" t="s">
         <v>912</v>
@@ -41726,8 +42152,8 @@
       <c r="E1068" t="s">
         <v>919</v>
       </c>
-      <c r="F1068" s="4">
-        <v>44044</v>
+      <c r="F1068" s="4" t="s">
+        <v>1192</v>
       </c>
       <c r="G1068" t="s">
         <v>912</v>
@@ -41769,8 +42195,8 @@
       <c r="E1069" t="s">
         <v>919</v>
       </c>
-      <c r="F1069" s="4">
-        <v>44044</v>
+      <c r="F1069" s="4" t="s">
+        <v>1192</v>
       </c>
       <c r="G1069" t="s">
         <v>912</v>
@@ -41809,8 +42235,8 @@
       <c r="E1070" t="s">
         <v>1127</v>
       </c>
-      <c r="F1070" s="4">
-        <v>42370</v>
+      <c r="F1070" s="4" t="s">
+        <v>1308</v>
       </c>
       <c r="G1070" t="s">
         <v>911</v>
@@ -41849,8 +42275,8 @@
       <c r="E1071" t="s">
         <v>1137</v>
       </c>
-      <c r="F1071" s="4">
-        <v>45231</v>
+      <c r="F1071" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G1071" t="s">
         <v>913</v>
@@ -41889,8 +42315,8 @@
       <c r="E1072" t="s">
         <v>1006</v>
       </c>
-      <c r="F1072" s="4">
-        <v>42552</v>
+      <c r="F1072" s="4" t="s">
+        <v>1256</v>
       </c>
       <c r="G1072" t="s">
         <v>912</v>
@@ -41932,8 +42358,8 @@
       <c r="E1073" t="s">
         <v>1087</v>
       </c>
-      <c r="F1073" s="4">
-        <v>45078</v>
+      <c r="F1073" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G1073" t="s">
         <v>912</v>
@@ -42092,8 +42518,8 @@
       <c r="E1077" t="s">
         <v>1065</v>
       </c>
-      <c r="F1077" s="4">
-        <v>41334</v>
+      <c r="F1077" s="4" t="s">
+        <v>1278</v>
       </c>
       <c r="G1077" t="s">
         <v>911</v>
@@ -42132,8 +42558,8 @@
       <c r="E1078" t="s">
         <v>1139</v>
       </c>
-      <c r="F1078" s="4">
-        <v>45261</v>
+      <c r="F1078" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G1078" t="s">
         <v>912</v>
@@ -42175,8 +42601,8 @@
       <c r="E1079" t="s">
         <v>1140</v>
       </c>
-      <c r="F1079" s="4">
-        <v>32599</v>
+      <c r="F1079" s="4" t="s">
+        <v>1313</v>
       </c>
       <c r="G1079" t="s">
         <v>911</v>
@@ -42215,8 +42641,8 @@
       <c r="E1080" t="s">
         <v>977</v>
       </c>
-      <c r="F1080" s="4">
-        <v>45231</v>
+      <c r="F1080" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G1080" t="s">
         <v>911</v>
@@ -42255,8 +42681,8 @@
       <c r="E1081" t="s">
         <v>1141</v>
       </c>
-      <c r="F1081" s="4">
-        <v>43952</v>
+      <c r="F1081" s="4" t="s">
+        <v>1314</v>
       </c>
       <c r="G1081" t="s">
         <v>911</v>
@@ -42295,8 +42721,8 @@
       <c r="E1082" t="s">
         <v>1141</v>
       </c>
-      <c r="F1082" s="4">
-        <v>43952</v>
+      <c r="F1082" s="4" t="s">
+        <v>1314</v>
       </c>
       <c r="G1082" t="s">
         <v>911</v>
@@ -42338,8 +42764,8 @@
       <c r="E1083" t="s">
         <v>934</v>
       </c>
-      <c r="F1083" s="4">
-        <v>43282</v>
+      <c r="F1083" s="4" t="s">
+        <v>1206</v>
       </c>
       <c r="G1083" t="s">
         <v>912</v>
@@ -42378,8 +42804,8 @@
       <c r="E1084" t="s">
         <v>1097</v>
       </c>
-      <c r="F1084" s="4">
-        <v>43800</v>
+      <c r="F1084" s="4" t="s">
+        <v>1294</v>
       </c>
       <c r="G1084" t="s">
         <v>913</v>
@@ -42421,8 +42847,8 @@
       <c r="E1085" t="s">
         <v>1142</v>
       </c>
-      <c r="F1085" s="4">
-        <v>42856</v>
+      <c r="F1085" s="4" t="s">
+        <v>1212</v>
       </c>
       <c r="G1085" t="s">
         <v>911</v>
@@ -42461,8 +42887,8 @@
       <c r="E1086" t="s">
         <v>938</v>
       </c>
-      <c r="F1086" s="4">
-        <v>35704</v>
+      <c r="F1086" s="4" t="s">
+        <v>1209</v>
       </c>
       <c r="G1086" t="s">
         <v>912</v>
@@ -42504,8 +42930,8 @@
       <c r="E1087" t="s">
         <v>959</v>
       </c>
-      <c r="F1087" s="4">
-        <v>33482</v>
+      <c r="F1087" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="G1087" t="s">
         <v>912</v>
@@ -42547,8 +42973,8 @@
       <c r="E1088" t="s">
         <v>959</v>
       </c>
-      <c r="F1088" s="4">
-        <v>33482</v>
+      <c r="F1088" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="G1088" t="s">
         <v>912</v>
@@ -42590,8 +43016,8 @@
       <c r="E1089" t="s">
         <v>959</v>
       </c>
-      <c r="F1089" s="4">
-        <v>33482</v>
+      <c r="F1089" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="G1089" t="s">
         <v>912</v>
@@ -42633,8 +43059,8 @@
       <c r="E1090" t="s">
         <v>959</v>
       </c>
-      <c r="F1090" s="4">
-        <v>33482</v>
+      <c r="F1090" s="4" t="s">
+        <v>1227</v>
       </c>
       <c r="G1090" t="s">
         <v>912</v>
@@ -42673,8 +43099,8 @@
       <c r="E1091" t="s">
         <v>996</v>
       </c>
-      <c r="F1091" s="4">
-        <v>43862</v>
+      <c r="F1091" s="4" t="s">
+        <v>1249</v>
       </c>
       <c r="G1091" t="s">
         <v>911</v>
@@ -42716,8 +43142,8 @@
       <c r="E1092" t="s">
         <v>1143</v>
       </c>
-      <c r="F1092" s="4">
-        <v>43040</v>
+      <c r="F1092" s="4" t="s">
+        <v>1310</v>
       </c>
       <c r="G1092" t="s">
         <v>913</v>
@@ -42756,8 +43182,8 @@
       <c r="E1093" t="s">
         <v>970</v>
       </c>
-      <c r="F1093" s="4">
-        <v>43344</v>
+      <c r="F1093" s="4" t="s">
+        <v>1236</v>
       </c>
       <c r="G1093" t="s">
         <v>912</v>
@@ -42799,8 +43225,8 @@
       <c r="E1094" t="s">
         <v>1144</v>
       </c>
-      <c r="F1094" s="4">
-        <v>42125</v>
+      <c r="F1094" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="G1094" t="s">
         <v>911</v>
@@ -42839,8 +43265,8 @@
       <c r="E1095" t="s">
         <v>1018</v>
       </c>
-      <c r="F1095" s="4">
-        <v>43831</v>
+      <c r="F1095" s="4" t="s">
+        <v>1262</v>
       </c>
       <c r="G1095" t="s">
         <v>911</v>
@@ -42879,8 +43305,8 @@
       <c r="E1096" t="s">
         <v>1018</v>
       </c>
-      <c r="F1096" s="4">
-        <v>43831</v>
+      <c r="F1096" s="4" t="s">
+        <v>1262</v>
       </c>
       <c r="G1096" t="s">
         <v>911</v>
@@ -42922,8 +43348,8 @@
       <c r="E1097" t="s">
         <v>952</v>
       </c>
-      <c r="F1097" s="4">
-        <v>43983</v>
+      <c r="F1097" s="4" t="s">
+        <v>1222</v>
       </c>
       <c r="G1097" t="s">
         <v>912</v>
@@ -42962,8 +43388,8 @@
       <c r="E1098" t="s">
         <v>1048</v>
       </c>
-      <c r="F1098" s="4">
-        <v>45108</v>
+      <c r="F1098" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G1098" t="s">
         <v>913</v>
@@ -43005,8 +43431,8 @@
       <c r="E1099" t="s">
         <v>1145</v>
       </c>
-      <c r="F1099" s="4">
-        <v>31898</v>
+      <c r="F1099" s="4" t="s">
+        <v>1315</v>
       </c>
       <c r="G1099" t="s">
         <v>911</v>
@@ -43045,8 +43471,8 @@
       <c r="E1100" t="s">
         <v>1005</v>
       </c>
-      <c r="F1100" s="4">
-        <v>41579</v>
+      <c r="F1100" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G1100" t="s">
         <v>913</v>
@@ -43085,8 +43511,8 @@
       <c r="E1101" t="s">
         <v>1086</v>
       </c>
-      <c r="F1101" s="4">
-        <v>30468</v>
+      <c r="F1101" s="4" t="s">
+        <v>1288</v>
       </c>
       <c r="G1101" t="s">
         <v>912</v>
@@ -43125,8 +43551,8 @@
       <c r="E1102" t="s">
         <v>1086</v>
       </c>
-      <c r="F1102" s="4">
-        <v>30468</v>
+      <c r="F1102" s="4" t="s">
+        <v>1288</v>
       </c>
       <c r="G1102" t="s">
         <v>912</v>
@@ -43168,8 +43594,8 @@
       <c r="E1103" t="s">
         <v>969</v>
       </c>
-      <c r="F1103" s="4">
-        <v>45170</v>
+      <c r="F1103" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G1103" t="s">
         <v>912</v>
@@ -43208,8 +43634,8 @@
       <c r="E1104" t="s">
         <v>983</v>
       </c>
-      <c r="F1104" s="4">
-        <v>44013</v>
+      <c r="F1104" s="4" t="s">
+        <v>1204</v>
       </c>
       <c r="G1104" t="s">
         <v>912</v>
@@ -43251,8 +43677,8 @@
       <c r="E1105" t="s">
         <v>1067</v>
       </c>
-      <c r="F1105" s="4">
-        <v>32295</v>
+      <c r="F1105" s="4" t="s">
+        <v>1226</v>
       </c>
       <c r="G1105" t="s">
         <v>912</v>
@@ -43291,8 +43717,8 @@
       <c r="E1106" t="s">
         <v>1146</v>
       </c>
-      <c r="F1106" s="4">
-        <v>35004</v>
+      <c r="F1106" s="4" t="s">
+        <v>1316</v>
       </c>
       <c r="G1106" t="s">
         <v>913</v>
@@ -43334,8 +43760,8 @@
       <c r="E1107" t="s">
         <v>1147</v>
       </c>
-      <c r="F1107" s="4">
-        <v>36495</v>
+      <c r="F1107" s="4" t="s">
+        <v>1317</v>
       </c>
       <c r="G1107" t="s">
         <v>913</v>
@@ -43377,8 +43803,8 @@
       <c r="E1108" t="s">
         <v>1147</v>
       </c>
-      <c r="F1108" s="4">
-        <v>36495</v>
+      <c r="F1108" s="4" t="s">
+        <v>1317</v>
       </c>
       <c r="G1108" t="s">
         <v>913</v>
@@ -43420,8 +43846,8 @@
       <c r="E1109" t="s">
         <v>1147</v>
       </c>
-      <c r="F1109" s="4">
-        <v>36495</v>
+      <c r="F1109" s="4" t="s">
+        <v>1317</v>
       </c>
       <c r="G1109" t="s">
         <v>913</v>
@@ -43463,8 +43889,8 @@
       <c r="E1110" t="s">
         <v>1147</v>
       </c>
-      <c r="F1110" s="4">
-        <v>36495</v>
+      <c r="F1110" s="4" t="s">
+        <v>1317</v>
       </c>
       <c r="G1110" t="s">
         <v>913</v>
@@ -43506,8 +43932,8 @@
       <c r="E1111" t="s">
         <v>1147</v>
       </c>
-      <c r="F1111" s="4">
-        <v>36495</v>
+      <c r="F1111" s="4" t="s">
+        <v>1317</v>
       </c>
       <c r="G1111" t="s">
         <v>913</v>
@@ -43546,8 +43972,8 @@
       <c r="E1112" t="s">
         <v>1148</v>
       </c>
-      <c r="F1112" s="4">
-        <v>32874</v>
+      <c r="F1112" s="4" t="s">
+        <v>1318</v>
       </c>
       <c r="G1112" t="s">
         <v>911</v>
@@ -43589,8 +44015,8 @@
       <c r="E1113" t="s">
         <v>1149</v>
       </c>
-      <c r="F1113" s="4">
-        <v>45200</v>
+      <c r="F1113" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G1113" t="s">
         <v>912</v>
@@ -43629,8 +44055,8 @@
       <c r="E1114" t="s">
         <v>1150</v>
       </c>
-      <c r="F1114" s="4">
-        <v>31686</v>
+      <c r="F1114" s="4" t="s">
+        <v>1319</v>
       </c>
       <c r="G1114" t="s">
         <v>912</v>
@@ -43672,8 +44098,8 @@
       <c r="E1115" t="s">
         <v>962</v>
       </c>
-      <c r="F1115" s="4">
-        <v>45200</v>
+      <c r="F1115" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G1115" t="s">
         <v>911</v>
@@ -43712,8 +44138,8 @@
       <c r="E1116" t="s">
         <v>1059</v>
       </c>
-      <c r="F1116" s="4">
-        <v>44986</v>
+      <c r="F1116" s="4" t="s">
+        <v>1245</v>
       </c>
       <c r="G1116" t="s">
         <v>911</v>
@@ -43752,8 +44178,8 @@
       <c r="E1117" t="s">
         <v>1059</v>
       </c>
-      <c r="F1117" s="4">
-        <v>44986</v>
+      <c r="F1117" s="4" t="s">
+        <v>1245</v>
       </c>
       <c r="G1117" t="s">
         <v>911</v>
@@ -43792,8 +44218,8 @@
       <c r="E1118" t="s">
         <v>1059</v>
       </c>
-      <c r="F1118" s="4">
-        <v>44986</v>
+      <c r="F1118" s="4" t="s">
+        <v>1245</v>
       </c>
       <c r="G1118" t="s">
         <v>911</v>
@@ -43832,8 +44258,8 @@
       <c r="E1119" t="s">
         <v>1008</v>
       </c>
-      <c r="F1119" s="4">
-        <v>45108</v>
+      <c r="F1119" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G1119" t="s">
         <v>912</v>
@@ -43875,8 +44301,8 @@
       <c r="E1120" t="s">
         <v>1151</v>
       </c>
-      <c r="F1120" s="4">
-        <v>43009</v>
+      <c r="F1120" s="4" t="s">
+        <v>1320</v>
       </c>
       <c r="G1120" t="s">
         <v>912</v>
@@ -43915,8 +44341,8 @@
       <c r="E1121" t="s">
         <v>1128</v>
       </c>
-      <c r="F1121" s="4">
-        <v>41974</v>
+      <c r="F1121" s="4" t="s">
+        <v>1309</v>
       </c>
       <c r="G1121" t="s">
         <v>913</v>
@@ -43955,8 +44381,8 @@
       <c r="E1122" t="s">
         <v>968</v>
       </c>
-      <c r="F1122" s="4">
-        <v>43466</v>
+      <c r="F1122" s="4" t="s">
+        <v>1235</v>
       </c>
       <c r="G1122" t="s">
         <v>911</v>
@@ -43998,8 +44424,8 @@
       <c r="E1123" t="s">
         <v>1152</v>
       </c>
-      <c r="F1123" s="4">
-        <v>44256</v>
+      <c r="F1123" s="4" t="s">
+        <v>1269</v>
       </c>
       <c r="G1123" t="s">
         <v>911</v>
@@ -44041,8 +44467,8 @@
       <c r="E1124" t="s">
         <v>1152</v>
       </c>
-      <c r="F1124" s="4">
-        <v>44256</v>
+      <c r="F1124" s="4" t="s">
+        <v>1269</v>
       </c>
       <c r="G1124" t="s">
         <v>911</v>
@@ -44084,8 +44510,8 @@
       <c r="E1125" t="s">
         <v>1153</v>
       </c>
-      <c r="F1125" s="4">
-        <v>42125</v>
+      <c r="F1125" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="G1125" t="s">
         <v>911</v>
@@ -44127,8 +44553,8 @@
       <c r="E1126" t="s">
         <v>1154</v>
       </c>
-      <c r="F1126" s="4">
-        <v>41579</v>
+      <c r="F1126" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G1126" t="s">
         <v>913</v>
@@ -44170,8 +44596,8 @@
       <c r="E1127" t="s">
         <v>1155</v>
       </c>
-      <c r="F1127" s="4">
-        <v>45261</v>
+      <c r="F1127" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G1127" t="s">
         <v>911</v>
@@ -44210,8 +44636,8 @@
       <c r="E1128" t="s">
         <v>1056</v>
       </c>
-      <c r="F1128" s="4">
-        <v>42401</v>
+      <c r="F1128" s="4" t="s">
+        <v>1272</v>
       </c>
       <c r="G1128" t="s">
         <v>911</v>
@@ -44253,8 +44679,8 @@
       <c r="E1129" t="s">
         <v>926</v>
       </c>
-      <c r="F1129" s="4">
-        <v>44105</v>
+      <c r="F1129" s="4" t="s">
+        <v>1199</v>
       </c>
       <c r="G1129" t="s">
         <v>912</v>
@@ -44296,8 +44722,8 @@
       <c r="E1130" t="s">
         <v>926</v>
       </c>
-      <c r="F1130" s="4">
-        <v>44105</v>
+      <c r="F1130" s="4" t="s">
+        <v>1199</v>
       </c>
       <c r="G1130" t="s">
         <v>912</v>
@@ -44339,8 +44765,8 @@
       <c r="E1131" t="s">
         <v>926</v>
       </c>
-      <c r="F1131" s="4">
-        <v>44105</v>
+      <c r="F1131" s="4" t="s">
+        <v>1199</v>
       </c>
       <c r="G1131" t="s">
         <v>912</v>
@@ -44379,8 +44805,8 @@
       <c r="E1132" t="s">
         <v>1113</v>
       </c>
-      <c r="F1132" s="4">
-        <v>41730</v>
+      <c r="F1132" s="4" t="s">
+        <v>1303</v>
       </c>
       <c r="G1132" t="s">
         <v>911</v>
@@ -44422,8 +44848,8 @@
       <c r="E1133" t="s">
         <v>1156</v>
       </c>
-      <c r="F1133" s="4">
-        <v>45017</v>
+      <c r="F1133" s="4" t="s">
+        <v>1211</v>
       </c>
       <c r="G1133" t="s">
         <v>912</v>
@@ -44462,8 +44888,8 @@
       <c r="E1134" t="s">
         <v>916</v>
       </c>
-      <c r="F1134" s="4">
-        <v>44927</v>
+      <c r="F1134" s="4" t="s">
+        <v>1190</v>
       </c>
       <c r="G1134" t="s">
         <v>912</v>
@@ -44502,8 +44928,8 @@
       <c r="E1135" t="s">
         <v>1157</v>
       </c>
-      <c r="F1135" s="4">
-        <v>42036</v>
+      <c r="F1135" s="4" t="s">
+        <v>1321</v>
       </c>
       <c r="G1135" t="s">
         <v>911</v>
@@ -44545,8 +44971,8 @@
       <c r="E1136" t="s">
         <v>1053</v>
       </c>
-      <c r="F1136" s="4">
-        <v>43556</v>
+      <c r="F1136" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G1136" t="s">
         <v>911</v>
@@ -44588,8 +45014,8 @@
       <c r="E1137" t="s">
         <v>1053</v>
       </c>
-      <c r="F1137" s="4">
-        <v>43556</v>
+      <c r="F1137" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G1137" t="s">
         <v>911</v>
@@ -44628,8 +45054,8 @@
       <c r="E1138" t="s">
         <v>1133</v>
       </c>
-      <c r="F1138" s="4">
-        <v>42644</v>
+      <c r="F1138" s="4" t="s">
+        <v>1312</v>
       </c>
       <c r="G1138" t="s">
         <v>912</v>
@@ -44671,8 +45097,8 @@
       <c r="E1139" t="s">
         <v>1033</v>
       </c>
-      <c r="F1139" s="4">
-        <v>45200</v>
+      <c r="F1139" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G1139" t="s">
         <v>911</v>
@@ -44711,8 +45137,8 @@
       <c r="E1140" t="s">
         <v>1025</v>
       </c>
-      <c r="F1140" s="4">
-        <v>30773</v>
+      <c r="F1140" s="4" t="s">
+        <v>1267</v>
       </c>
       <c r="G1140" t="s">
         <v>911</v>
@@ -44754,8 +45180,8 @@
       <c r="E1141" t="s">
         <v>1024</v>
       </c>
-      <c r="F1141" s="4">
-        <v>45261</v>
+      <c r="F1141" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G1141" t="s">
         <v>912</v>
@@ -44794,8 +45220,8 @@
       <c r="E1142" t="s">
         <v>1158</v>
       </c>
-      <c r="F1142" s="4">
-        <v>43617</v>
+      <c r="F1142" s="4" t="s">
+        <v>1264</v>
       </c>
       <c r="G1142" t="s">
         <v>912</v>
@@ -44834,8 +45260,8 @@
       <c r="E1143" t="s">
         <v>1158</v>
       </c>
-      <c r="F1143" s="4">
-        <v>43617</v>
+      <c r="F1143" s="4" t="s">
+        <v>1264</v>
       </c>
       <c r="G1143" t="s">
         <v>912</v>
@@ -44874,8 +45300,8 @@
       <c r="E1144" t="s">
         <v>1158</v>
       </c>
-      <c r="F1144" s="4">
-        <v>43617</v>
+      <c r="F1144" s="4" t="s">
+        <v>1264</v>
       </c>
       <c r="G1144" t="s">
         <v>912</v>
@@ -44914,8 +45340,8 @@
       <c r="E1145" t="s">
         <v>1158</v>
       </c>
-      <c r="F1145" s="4">
-        <v>43617</v>
+      <c r="F1145" s="4" t="s">
+        <v>1264</v>
       </c>
       <c r="G1145" t="s">
         <v>912</v>
@@ -44954,8 +45380,8 @@
       <c r="E1146" t="s">
         <v>1158</v>
       </c>
-      <c r="F1146" s="4">
-        <v>43617</v>
+      <c r="F1146" s="4" t="s">
+        <v>1264</v>
       </c>
       <c r="G1146" t="s">
         <v>912</v>
@@ -44997,8 +45423,8 @@
       <c r="E1147" t="s">
         <v>1093</v>
       </c>
-      <c r="F1147" s="4">
-        <v>41487</v>
+      <c r="F1147" s="4" t="s">
+        <v>1291</v>
       </c>
       <c r="G1147" t="s">
         <v>912</v>
@@ -45037,8 +45463,8 @@
       <c r="E1148" t="s">
         <v>1066</v>
       </c>
-      <c r="F1148" s="4">
-        <v>43313</v>
+      <c r="F1148" s="4" t="s">
+        <v>1279</v>
       </c>
       <c r="G1148" t="s">
         <v>912</v>
@@ -45080,8 +45506,8 @@
       <c r="E1149" t="s">
         <v>1122</v>
       </c>
-      <c r="F1149" s="4">
-        <v>44958</v>
+      <c r="F1149" s="4" t="s">
+        <v>1260</v>
       </c>
       <c r="G1149" t="s">
         <v>912</v>
@@ -45120,8 +45546,8 @@
       <c r="E1150" t="s">
         <v>1159</v>
       </c>
-      <c r="F1150" s="4">
-        <v>41365</v>
+      <c r="F1150" s="4" t="s">
+        <v>1322</v>
       </c>
       <c r="G1150" t="s">
         <v>911</v>
@@ -45160,8 +45586,8 @@
       <c r="E1151" t="s">
         <v>1051</v>
       </c>
-      <c r="F1151" s="4">
-        <v>43556</v>
+      <c r="F1151" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G1151" t="s">
         <v>911</v>
@@ -45200,8 +45626,8 @@
       <c r="E1152" t="s">
         <v>1051</v>
       </c>
-      <c r="F1152" s="4">
-        <v>43556</v>
+      <c r="F1152" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G1152" t="s">
         <v>911</v>
@@ -45240,8 +45666,8 @@
       <c r="E1153" t="s">
         <v>1051</v>
       </c>
-      <c r="F1153" s="4">
-        <v>43556</v>
+      <c r="F1153" s="4" t="s">
+        <v>1239</v>
       </c>
       <c r="G1153" t="s">
         <v>911</v>
@@ -45283,8 +45709,8 @@
       <c r="E1154" t="s">
         <v>1160</v>
       </c>
-      <c r="F1154" s="4">
-        <v>43132</v>
+      <c r="F1154" s="4" t="s">
+        <v>1215</v>
       </c>
       <c r="G1154" t="s">
         <v>911</v>
@@ -45326,8 +45752,8 @@
       <c r="E1155" t="s">
         <v>1133</v>
       </c>
-      <c r="F1155" s="4">
-        <v>42644</v>
+      <c r="F1155" s="4" t="s">
+        <v>1312</v>
       </c>
       <c r="G1155" t="s">
         <v>912</v>
@@ -45369,8 +45795,8 @@
       <c r="E1156" t="s">
         <v>1087</v>
       </c>
-      <c r="F1156" s="4">
-        <v>45078</v>
+      <c r="F1156" s="4" t="s">
+        <v>1228</v>
       </c>
       <c r="G1156" t="s">
         <v>912</v>
@@ -45409,8 +45835,8 @@
       <c r="E1157" t="s">
         <v>1161</v>
       </c>
-      <c r="F1157" s="4">
-        <v>43739</v>
+      <c r="F1157" s="4" t="s">
+        <v>1302</v>
       </c>
       <c r="G1157" t="s">
         <v>912</v>
@@ -45449,8 +45875,8 @@
       <c r="E1158" t="s">
         <v>1162</v>
       </c>
-      <c r="F1158" s="4">
-        <v>41579</v>
+      <c r="F1158" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G1158" t="s">
         <v>913</v>
@@ -45489,8 +45915,8 @@
       <c r="E1159" t="s">
         <v>1162</v>
       </c>
-      <c r="F1159" s="4">
-        <v>41579</v>
+      <c r="F1159" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G1159" t="s">
         <v>913</v>
@@ -45572,8 +45998,8 @@
       <c r="E1161" t="s">
         <v>1163</v>
       </c>
-      <c r="F1161" s="4">
-        <v>45261</v>
+      <c r="F1161" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G1161" t="s">
         <v>913</v>
@@ -45612,8 +46038,8 @@
       <c r="E1162" t="s">
         <v>931</v>
       </c>
-      <c r="F1162" s="4">
-        <v>33756</v>
+      <c r="F1162" s="4" t="s">
+        <v>1203</v>
       </c>
       <c r="G1162" t="s">
         <v>912</v>
@@ -45655,8 +46081,8 @@
       <c r="E1163" t="s">
         <v>1116</v>
       </c>
-      <c r="F1163" s="4">
-        <v>45139</v>
+      <c r="F1163" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G1163" t="s">
         <v>912</v>
@@ -45695,8 +46121,8 @@
       <c r="E1164" t="s">
         <v>1164</v>
       </c>
-      <c r="F1164" s="4">
-        <v>41671</v>
+      <c r="F1164" s="4" t="s">
+        <v>1284</v>
       </c>
       <c r="G1164" t="s">
         <v>911</v>
@@ -45735,8 +46161,8 @@
       <c r="E1165" t="s">
         <v>1164</v>
       </c>
-      <c r="F1165" s="4">
-        <v>41671</v>
+      <c r="F1165" s="4" t="s">
+        <v>1284</v>
       </c>
       <c r="G1165" t="s">
         <v>911</v>
@@ -45778,8 +46204,8 @@
       <c r="E1166" t="s">
         <v>934</v>
       </c>
-      <c r="F1166" s="4">
-        <v>43282</v>
+      <c r="F1166" s="4" t="s">
+        <v>1206</v>
       </c>
       <c r="G1166" t="s">
         <v>912</v>
@@ -45818,8 +46244,8 @@
       <c r="E1167" t="s">
         <v>995</v>
       </c>
-      <c r="F1167" s="4">
-        <v>45139</v>
+      <c r="F1167" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G1167" t="s">
         <v>913</v>
@@ -45861,8 +46287,8 @@
       <c r="E1168" t="s">
         <v>1043</v>
       </c>
-      <c r="F1168" s="4">
-        <v>45200</v>
+      <c r="F1168" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G1168" t="s">
         <v>913</v>
@@ -45904,8 +46330,8 @@
       <c r="E1169" t="s">
         <v>1165</v>
       </c>
-      <c r="F1169" s="4">
-        <v>34578</v>
+      <c r="F1169" s="4" t="s">
+        <v>1273</v>
       </c>
       <c r="G1169" t="s">
         <v>912</v>
@@ -46147,8 +46573,8 @@
       <c r="E1175" t="s">
         <v>1167</v>
       </c>
-      <c r="F1175" s="4">
-        <v>42795</v>
+      <c r="F1175" s="4" t="s">
+        <v>1297</v>
       </c>
       <c r="G1175" t="s">
         <v>911</v>
@@ -46230,8 +46656,8 @@
       <c r="E1177" t="s">
         <v>1168</v>
       </c>
-      <c r="F1177" s="4">
-        <v>41456</v>
+      <c r="F1177" s="4" t="s">
+        <v>1259</v>
       </c>
       <c r="G1177" t="s">
         <v>912</v>
@@ -46270,8 +46696,8 @@
       <c r="E1178" t="s">
         <v>1169</v>
       </c>
-      <c r="F1178" s="4">
-        <v>44136</v>
+      <c r="F1178" s="4" t="s">
+        <v>1323</v>
       </c>
       <c r="G1178" t="s">
         <v>913</v>
@@ -46313,8 +46739,8 @@
       <c r="E1179" t="s">
         <v>1170</v>
       </c>
-      <c r="F1179" s="4">
-        <v>44166</v>
+      <c r="F1179" s="4" t="s">
+        <v>1255</v>
       </c>
       <c r="G1179" t="s">
         <v>913</v>
@@ -46356,8 +46782,8 @@
       <c r="E1180" t="s">
         <v>1170</v>
       </c>
-      <c r="F1180" s="4">
-        <v>44166</v>
+      <c r="F1180" s="4" t="s">
+        <v>1255</v>
       </c>
       <c r="G1180" t="s">
         <v>913</v>
@@ -46399,8 +46825,8 @@
       <c r="E1181" t="s">
         <v>1170</v>
       </c>
-      <c r="F1181" s="4">
-        <v>44166</v>
+      <c r="F1181" s="4" t="s">
+        <v>1255</v>
       </c>
       <c r="G1181" t="s">
         <v>913</v>
@@ -46442,8 +46868,8 @@
       <c r="E1182" t="s">
         <v>1170</v>
       </c>
-      <c r="F1182" s="4">
-        <v>44166</v>
+      <c r="F1182" s="4" t="s">
+        <v>1255</v>
       </c>
       <c r="G1182" t="s">
         <v>913</v>
@@ -46482,8 +46908,8 @@
       <c r="E1183" t="s">
         <v>978</v>
       </c>
-      <c r="F1183" s="4">
-        <v>45017</v>
+      <c r="F1183" s="4" t="s">
+        <v>1211</v>
       </c>
       <c r="G1183" t="s">
         <v>911</v>
@@ -46522,8 +46948,8 @@
       <c r="E1184" t="s">
         <v>1171</v>
       </c>
-      <c r="F1184" s="4">
-        <v>44986</v>
+      <c r="F1184" s="4" t="s">
+        <v>1245</v>
       </c>
       <c r="G1184" t="s">
         <v>912</v>
@@ -46565,8 +46991,8 @@
       <c r="E1185" t="s">
         <v>1172</v>
       </c>
-      <c r="F1185" s="4">
-        <v>42036</v>
+      <c r="F1185" s="4" t="s">
+        <v>1321</v>
       </c>
       <c r="G1185" t="s">
         <v>911</v>
@@ -46605,8 +47031,8 @@
       <c r="E1186" t="s">
         <v>1134</v>
       </c>
-      <c r="F1186" s="4">
-        <v>41944</v>
+      <c r="F1186" s="4" t="s">
+        <v>1244</v>
       </c>
       <c r="G1186" t="s">
         <v>913</v>
@@ -46648,8 +47074,8 @@
       <c r="E1187" t="s">
         <v>966</v>
       </c>
-      <c r="F1187" s="4">
-        <v>28703</v>
+      <c r="F1187" s="4" t="s">
+        <v>1233</v>
       </c>
       <c r="G1187" t="s">
         <v>912</v>
@@ -46691,8 +47117,8 @@
       <c r="E1188" t="s">
         <v>966</v>
       </c>
-      <c r="F1188" s="4">
-        <v>28703</v>
+      <c r="F1188" s="4" t="s">
+        <v>1233</v>
       </c>
       <c r="G1188" t="s">
         <v>912</v>
@@ -46731,8 +47157,8 @@
       <c r="E1189" t="s">
         <v>1173</v>
       </c>
-      <c r="F1189" s="4">
-        <v>35462</v>
+      <c r="F1189" s="4" t="s">
+        <v>1324</v>
       </c>
       <c r="G1189" t="s">
         <v>911</v>
@@ -46774,8 +47200,8 @@
       <c r="E1190" t="s">
         <v>1173</v>
       </c>
-      <c r="F1190" s="4">
-        <v>35462</v>
+      <c r="F1190" s="4" t="s">
+        <v>1324</v>
       </c>
       <c r="G1190" t="s">
         <v>911</v>
@@ -46814,8 +47240,8 @@
       <c r="E1191" t="s">
         <v>922</v>
       </c>
-      <c r="F1191" s="4">
-        <v>30103</v>
+      <c r="F1191" s="4" t="s">
+        <v>1195</v>
       </c>
       <c r="G1191" t="s">
         <v>912</v>
@@ -46857,8 +47283,8 @@
       <c r="E1192" t="s">
         <v>1081</v>
       </c>
-      <c r="F1192" s="4">
-        <v>42125</v>
+      <c r="F1192" s="4" t="s">
+        <v>1220</v>
       </c>
       <c r="G1192" t="s">
         <v>911</v>
@@ -46897,8 +47323,8 @@
       <c r="E1193" t="s">
         <v>1174</v>
       </c>
-      <c r="F1193" s="4">
-        <v>32752</v>
+      <c r="F1193" s="4" t="s">
+        <v>1325</v>
       </c>
       <c r="G1193" t="s">
         <v>912</v>
@@ -46937,8 +47363,8 @@
       <c r="E1194" t="s">
         <v>1174</v>
       </c>
-      <c r="F1194" s="4">
-        <v>32752</v>
+      <c r="F1194" s="4" t="s">
+        <v>1325</v>
       </c>
       <c r="G1194" t="s">
         <v>912</v>
@@ -46977,8 +47403,8 @@
       <c r="E1195" t="s">
         <v>1174</v>
       </c>
-      <c r="F1195" s="4">
-        <v>32752</v>
+      <c r="F1195" s="4" t="s">
+        <v>1325</v>
       </c>
       <c r="G1195" t="s">
         <v>912</v>
@@ -47017,8 +47443,8 @@
       <c r="E1196" t="s">
         <v>1174</v>
       </c>
-      <c r="F1196" s="4">
-        <v>32752</v>
+      <c r="F1196" s="4" t="s">
+        <v>1325</v>
       </c>
       <c r="G1196" t="s">
         <v>912</v>
@@ -47057,8 +47483,8 @@
       <c r="E1197" t="s">
         <v>969</v>
       </c>
-      <c r="F1197" s="4">
-        <v>45170</v>
+      <c r="F1197" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G1197" t="s">
         <v>912</v>
@@ -47097,8 +47523,8 @@
       <c r="E1198" t="s">
         <v>1047</v>
       </c>
-      <c r="F1198" s="4">
-        <v>41944</v>
+      <c r="F1198" s="4" t="s">
+        <v>1244</v>
       </c>
       <c r="G1198" t="s">
         <v>913</v>
@@ -47140,8 +47566,8 @@
       <c r="E1199" t="s">
         <v>1165</v>
       </c>
-      <c r="F1199" s="4">
-        <v>34578</v>
+      <c r="F1199" s="4" t="s">
+        <v>1273</v>
       </c>
       <c r="G1199" t="s">
         <v>912</v>
@@ -47180,8 +47606,8 @@
       <c r="E1200" t="s">
         <v>973</v>
       </c>
-      <c r="F1200" s="4">
-        <v>43070</v>
+      <c r="F1200" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="G1200" t="s">
         <v>913</v>
@@ -47223,8 +47649,8 @@
       <c r="E1201" t="s">
         <v>950</v>
       </c>
-      <c r="F1201" s="4">
-        <v>33756</v>
+      <c r="F1201" s="4" t="s">
+        <v>1203</v>
       </c>
       <c r="G1201" t="s">
         <v>912</v>
@@ -47266,8 +47692,8 @@
       <c r="E1202" t="s">
         <v>950</v>
       </c>
-      <c r="F1202" s="4">
-        <v>33756</v>
+      <c r="F1202" s="4" t="s">
+        <v>1203</v>
       </c>
       <c r="G1202" t="s">
         <v>912</v>
@@ -47309,8 +47735,8 @@
       <c r="E1203" t="s">
         <v>950</v>
       </c>
-      <c r="F1203" s="4">
-        <v>33756</v>
+      <c r="F1203" s="4" t="s">
+        <v>1203</v>
       </c>
       <c r="G1203" t="s">
         <v>912</v>
@@ -47352,8 +47778,8 @@
       <c r="E1204" t="s">
         <v>950</v>
       </c>
-      <c r="F1204" s="4">
-        <v>33756</v>
+      <c r="F1204" s="4" t="s">
+        <v>1203</v>
       </c>
       <c r="G1204" t="s">
         <v>912</v>
@@ -47392,8 +47818,8 @@
       <c r="E1205" t="s">
         <v>1049</v>
       </c>
-      <c r="F1205" s="4">
-        <v>44958</v>
+      <c r="F1205" s="4" t="s">
+        <v>1260</v>
       </c>
       <c r="G1205" t="s">
         <v>911</v>
@@ -47435,8 +47861,8 @@
       <c r="E1206" t="s">
         <v>979</v>
       </c>
-      <c r="F1206" s="4">
-        <v>32905</v>
+      <c r="F1206" s="4" t="s">
+        <v>1240</v>
       </c>
       <c r="G1206" t="s">
         <v>911</v>
@@ -47475,8 +47901,8 @@
       <c r="E1207" t="s">
         <v>1175</v>
       </c>
-      <c r="F1207" s="4">
-        <v>43435</v>
+      <c r="F1207" s="4" t="s">
+        <v>1326</v>
       </c>
       <c r="G1207" t="s">
         <v>913</v>
@@ -47518,8 +47944,8 @@
       <c r="E1208" t="s">
         <v>973</v>
       </c>
-      <c r="F1208" s="4">
-        <v>43070</v>
+      <c r="F1208" s="4" t="s">
+        <v>1223</v>
       </c>
       <c r="G1208" t="s">
         <v>913</v>
@@ -47558,8 +47984,8 @@
       <c r="E1209" t="s">
         <v>974</v>
       </c>
-      <c r="F1209" s="4">
-        <v>44197</v>
+      <c r="F1209" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="G1209" t="s">
         <v>911</v>
@@ -47598,8 +48024,8 @@
       <c r="E1210" t="s">
         <v>974</v>
       </c>
-      <c r="F1210" s="4">
-        <v>44197</v>
+      <c r="F1210" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="G1210" t="s">
         <v>911</v>
@@ -47641,8 +48067,8 @@
       <c r="E1211" t="s">
         <v>1068</v>
       </c>
-      <c r="F1211" s="4">
-        <v>42491</v>
+      <c r="F1211" s="4" t="s">
+        <v>1280</v>
       </c>
       <c r="G1211" t="s">
         <v>911</v>
@@ -47681,8 +48107,8 @@
       <c r="E1212" t="s">
         <v>983</v>
       </c>
-      <c r="F1212" s="4">
-        <v>44013</v>
+      <c r="F1212" s="4" t="s">
+        <v>1204</v>
       </c>
       <c r="G1212" t="s">
         <v>912</v>
@@ -47724,8 +48150,8 @@
       <c r="E1213" t="s">
         <v>1112</v>
       </c>
-      <c r="F1213" s="4">
-        <v>43739</v>
+      <c r="F1213" s="4" t="s">
+        <v>1302</v>
       </c>
       <c r="G1213" t="s">
         <v>912</v>
@@ -47764,8 +48190,8 @@
       <c r="E1214" t="s">
         <v>1176</v>
       </c>
-      <c r="F1214" s="4">
-        <v>45108</v>
+      <c r="F1214" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G1214" t="s">
         <v>912</v>
@@ -47804,8 +48230,8 @@
       <c r="E1215" t="s">
         <v>1177</v>
       </c>
-      <c r="F1215" s="4">
-        <v>42309</v>
+      <c r="F1215" s="4" t="s">
+        <v>1197</v>
       </c>
       <c r="G1215" t="s">
         <v>913</v>
@@ -47844,8 +48270,8 @@
       <c r="E1216" t="s">
         <v>1177</v>
       </c>
-      <c r="F1216" s="4">
-        <v>42309</v>
+      <c r="F1216" s="4" t="s">
+        <v>1197</v>
       </c>
       <c r="G1216" t="s">
         <v>913</v>
@@ -47884,8 +48310,8 @@
       <c r="E1217" t="s">
         <v>1177</v>
       </c>
-      <c r="F1217" s="4">
-        <v>42309</v>
+      <c r="F1217" s="4" t="s">
+        <v>1197</v>
       </c>
       <c r="G1217" t="s">
         <v>913</v>
@@ -47924,8 +48350,8 @@
       <c r="E1218" t="s">
         <v>1177</v>
       </c>
-      <c r="F1218" s="4">
-        <v>42309</v>
+      <c r="F1218" s="4" t="s">
+        <v>1197</v>
       </c>
       <c r="G1218" t="s">
         <v>913</v>
@@ -47967,8 +48393,8 @@
       <c r="E1219" t="s">
         <v>1178</v>
       </c>
-      <c r="F1219" s="4">
-        <v>45108</v>
+      <c r="F1219" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G1219" t="s">
         <v>911</v>
@@ -48007,8 +48433,8 @@
       <c r="E1220" t="s">
         <v>1057</v>
       </c>
-      <c r="F1220" s="4">
-        <v>34578</v>
+      <c r="F1220" s="4" t="s">
+        <v>1273</v>
       </c>
       <c r="G1220" t="s">
         <v>912</v>
@@ -48050,8 +48476,8 @@
       <c r="E1221" t="s">
         <v>966</v>
       </c>
-      <c r="F1221" s="4">
-        <v>28703</v>
+      <c r="F1221" s="4" t="s">
+        <v>1233</v>
       </c>
       <c r="G1221" t="s">
         <v>912</v>
@@ -48090,8 +48516,8 @@
       <c r="E1222" t="s">
         <v>915</v>
       </c>
-      <c r="F1222" s="4">
-        <v>43191</v>
+      <c r="F1222" s="4" t="s">
+        <v>1189</v>
       </c>
       <c r="G1222" t="s">
         <v>911</v>
@@ -48133,8 +48559,8 @@
       <c r="E1223" t="s">
         <v>1137</v>
       </c>
-      <c r="F1223" s="4">
-        <v>45231</v>
+      <c r="F1223" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G1223" t="s">
         <v>913</v>
@@ -48176,8 +48602,8 @@
       <c r="E1224" t="s">
         <v>1137</v>
       </c>
-      <c r="F1224" s="4">
-        <v>45231</v>
+      <c r="F1224" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G1224" t="s">
         <v>913</v>
@@ -48216,8 +48642,8 @@
       <c r="E1225" t="s">
         <v>927</v>
       </c>
-      <c r="F1225" s="4">
-        <v>43405</v>
+      <c r="F1225" s="4" t="s">
+        <v>1200</v>
       </c>
       <c r="G1225" t="s">
         <v>913</v>
@@ -48256,8 +48682,8 @@
       <c r="E1226" t="s">
         <v>1167</v>
       </c>
-      <c r="F1226" s="4">
-        <v>42795</v>
+      <c r="F1226" s="4" t="s">
+        <v>1297</v>
       </c>
       <c r="G1226" t="s">
         <v>911</v>
@@ -48299,8 +48725,8 @@
       <c r="E1227" t="s">
         <v>1001</v>
       </c>
-      <c r="F1227" s="4">
-        <v>41579</v>
+      <c r="F1227" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G1227" t="s">
         <v>913</v>
@@ -48339,8 +48765,8 @@
       <c r="E1228" t="s">
         <v>1179</v>
       </c>
-      <c r="F1228" s="4">
-        <v>41426</v>
+      <c r="F1228" s="4" t="s">
+        <v>1296</v>
       </c>
       <c r="G1228" t="s">
         <v>912</v>
@@ -48379,8 +48805,8 @@
       <c r="E1229" t="s">
         <v>1008</v>
       </c>
-      <c r="F1229" s="4">
-        <v>45108</v>
+      <c r="F1229" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G1229" t="s">
         <v>912</v>
@@ -48419,8 +48845,8 @@
       <c r="E1230" t="s">
         <v>1008</v>
       </c>
-      <c r="F1230" s="4">
-        <v>45108</v>
+      <c r="F1230" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G1230" t="s">
         <v>912</v>
@@ -48459,8 +48885,8 @@
       <c r="E1231" t="s">
         <v>1008</v>
       </c>
-      <c r="F1231" s="4">
-        <v>45108</v>
+      <c r="F1231" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="G1231" t="s">
         <v>912</v>
@@ -48499,8 +48925,8 @@
       <c r="E1232" t="s">
         <v>1180</v>
       </c>
-      <c r="F1232" s="4">
-        <v>41395</v>
+      <c r="F1232" s="4" t="s">
+        <v>1327</v>
       </c>
       <c r="G1232" t="s">
         <v>911</v>
@@ -48539,8 +48965,8 @@
       <c r="E1233" t="s">
         <v>1076</v>
       </c>
-      <c r="F1233" s="4">
-        <v>42278</v>
+      <c r="F1233" s="4" t="s">
+        <v>1283</v>
       </c>
       <c r="G1233" t="s">
         <v>912</v>
@@ -48582,8 +49008,8 @@
       <c r="E1234" t="s">
         <v>1014</v>
       </c>
-      <c r="F1234" s="4">
-        <v>45139</v>
+      <c r="F1234" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G1234" t="s">
         <v>911</v>
@@ -48622,8 +49048,8 @@
       <c r="E1235" t="s">
         <v>1030</v>
       </c>
-      <c r="F1235" s="4">
-        <v>45261</v>
+      <c r="F1235" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G1235" t="s">
         <v>912</v>
@@ -48665,8 +49091,8 @@
       <c r="E1236" t="s">
         <v>1154</v>
       </c>
-      <c r="F1236" s="4">
-        <v>41579</v>
+      <c r="F1236" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G1236" t="s">
         <v>913</v>
@@ -48708,8 +49134,8 @@
       <c r="E1237" t="s">
         <v>1154</v>
       </c>
-      <c r="F1237" s="4">
-        <v>41579</v>
+      <c r="F1237" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G1237" t="s">
         <v>913</v>
@@ -48751,8 +49177,8 @@
       <c r="E1238" t="s">
         <v>1154</v>
       </c>
-      <c r="F1238" s="4">
-        <v>41579</v>
+      <c r="F1238" s="4" t="s">
+        <v>1252</v>
       </c>
       <c r="G1238" t="s">
         <v>913</v>
@@ -48791,8 +49217,8 @@
       <c r="E1239" t="s">
         <v>1074</v>
       </c>
-      <c r="F1239" s="4">
-        <v>45231</v>
+      <c r="F1239" s="4" t="s">
+        <v>1219</v>
       </c>
       <c r="G1239" t="s">
         <v>912</v>
@@ -48834,8 +49260,8 @@
       <c r="E1240" t="s">
         <v>1002</v>
       </c>
-      <c r="F1240" s="4">
-        <v>41791</v>
+      <c r="F1240" s="4" t="s">
+        <v>1253</v>
       </c>
       <c r="G1240" t="s">
         <v>912</v>
@@ -48874,8 +49300,8 @@
       <c r="E1241" t="s">
         <v>1079</v>
       </c>
-      <c r="F1241" s="4">
-        <v>41671</v>
+      <c r="F1241" s="4" t="s">
+        <v>1284</v>
       </c>
       <c r="G1241" t="s">
         <v>911</v>
@@ -48917,8 +49343,8 @@
       <c r="E1242" t="s">
         <v>1116</v>
       </c>
-      <c r="F1242" s="4">
-        <v>45139</v>
+      <c r="F1242" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="G1242" t="s">
         <v>912</v>
@@ -48957,8 +49383,8 @@
       <c r="E1243" t="s">
         <v>1023</v>
       </c>
-      <c r="F1243" s="4">
-        <v>45261</v>
+      <c r="F1243" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G1243" t="s">
         <v>911</v>
@@ -48997,8 +49423,8 @@
       <c r="E1244" t="s">
         <v>1023</v>
       </c>
-      <c r="F1244" s="4">
-        <v>45261</v>
+      <c r="F1244" s="4" t="s">
+        <v>1266</v>
       </c>
       <c r="G1244" t="s">
         <v>911</v>
@@ -49040,8 +49466,8 @@
       <c r="E1245" t="s">
         <v>918</v>
       </c>
-      <c r="F1245" s="4">
-        <v>43160</v>
+      <c r="F1245" s="4" t="s">
+        <v>1191</v>
       </c>
       <c r="G1245" t="s">
         <v>911</v>
@@ -49080,8 +49506,8 @@
       <c r="E1246" t="s">
         <v>1088</v>
       </c>
-      <c r="F1246" s="4">
-        <v>45017</v>
+      <c r="F1246" s="4" t="s">
+        <v>1211</v>
       </c>
       <c r="G1246" t="s">
         <v>911</v>
@@ -49123,8 +49549,8 @@
       <c r="E1247" t="s">
         <v>1181</v>
       </c>
-      <c r="F1247" s="4">
-        <v>34425</v>
+      <c r="F1247" s="4" t="s">
+        <v>1328</v>
       </c>
       <c r="G1247" t="s">
         <v>911</v>
@@ -49163,8 +49589,8 @@
       <c r="E1248" t="s">
         <v>1182</v>
       </c>
-      <c r="F1248" s="4">
-        <v>42644</v>
+      <c r="F1248" s="4" t="s">
+        <v>1312</v>
       </c>
       <c r="G1248" t="s">
         <v>912</v>
@@ -49206,8 +49632,8 @@
       <c r="E1249" t="s">
         <v>1035</v>
       </c>
-      <c r="F1249" s="4">
-        <v>45170</v>
+      <c r="F1249" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G1249" t="s">
         <v>912</v>
@@ -49249,8 +49675,8 @@
       <c r="E1250" t="s">
         <v>1035</v>
       </c>
-      <c r="F1250" s="4">
-        <v>45170</v>
+      <c r="F1250" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G1250" t="s">
         <v>912</v>
@@ -49292,8 +49718,8 @@
       <c r="E1251" t="s">
         <v>1035</v>
       </c>
-      <c r="F1251" s="4">
-        <v>45170</v>
+      <c r="F1251" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G1251" t="s">
         <v>912</v>
@@ -49335,8 +49761,8 @@
       <c r="E1252" t="s">
         <v>1035</v>
       </c>
-      <c r="F1252" s="4">
-        <v>45170</v>
+      <c r="F1252" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G1252" t="s">
         <v>912</v>
@@ -49378,8 +49804,8 @@
       <c r="E1253" t="s">
         <v>1035</v>
       </c>
-      <c r="F1253" s="4">
-        <v>45170</v>
+      <c r="F1253" s="4" t="s">
+        <v>1216</v>
       </c>
       <c r="G1253" t="s">
         <v>912</v>
@@ -49418,8 +49844,8 @@
       <c r="E1254" t="s">
         <v>1003</v>
       </c>
-      <c r="F1254" s="4">
-        <v>30987</v>
+      <c r="F1254" s="4" t="s">
+        <v>1254</v>
       </c>
       <c r="G1254" t="s">
         <v>913</v>
@@ -49458,8 +49884,8 @@
       <c r="E1255" t="s">
         <v>1033</v>
       </c>
-      <c r="F1255" s="4">
-        <v>45200</v>
+      <c r="F1255" s="4" t="s">
+        <v>1217</v>
       </c>
       <c r="G1255" t="s">
         <v>911</v>
@@ -49501,8 +49927,8 @@
       <c r="E1256" t="s">
         <v>1031</v>
       </c>
-      <c r="F1256" s="4">
-        <v>43466</v>
+      <c r="F1256" s="4" t="s">
+        <v>1235</v>
       </c>
       <c r="G1256" t="s">
         <v>911</v>
@@ -49541,8 +49967,8 @@
       <c r="E1257" t="s">
         <v>974</v>
       </c>
-      <c r="F1257" s="4">
-        <v>44197</v>
+      <c r="F1257" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="G1257" t="s">
         <v>911</v>
@@ -49584,8 +50010,8 @@
       <c r="E1258" t="s">
         <v>1183</v>
       </c>
-      <c r="F1258" s="4">
-        <v>33329</v>
+      <c r="F1258" s="4" t="s">
+        <v>1329</v>
       </c>
       <c r="G1258" t="s">
         <v>911</v>
@@ -49627,8 +50053,8 @@
       <c r="E1259" t="s">
         <v>1183</v>
       </c>
-      <c r="F1259" s="4">
-        <v>33329</v>
+      <c r="F1259" s="4" t="s">
+        <v>1329</v>
       </c>
       <c r="G1259" t="s">
         <v>911</v>
@@ -49670,8 +50096,8 @@
       <c r="E1260" t="s">
         <v>1183</v>
       </c>
-      <c r="F1260" s="4">
-        <v>33329</v>
+      <c r="F1260" s="4" t="s">
+        <v>1329</v>
       </c>
       <c r="G1260" t="s">
         <v>911</v>
@@ -49713,8 +50139,8 @@
       <c r="E1261" t="s">
         <v>1183</v>
       </c>
-      <c r="F1261" s="4">
-        <v>33329</v>
+      <c r="F1261" s="4" t="s">
+        <v>1329</v>
       </c>
       <c r="G1261" t="s">
         <v>911</v>
@@ -49756,8 +50182,8 @@
       <c r="E1262" t="s">
         <v>1184</v>
       </c>
-      <c r="F1262" s="4">
-        <v>29403</v>
+      <c r="F1262" s="4" t="s">
+        <v>1330</v>
       </c>
       <c r="G1262" t="s">
         <v>912</v>
